--- a/Database/NÓMINA_EMPLEADOS.xlsx
+++ b/Database/NÓMINA_EMPLEADOS.xlsx
@@ -1,33 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kevin\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\juand\Documents\6 Semestre\BD 2\Modulo-nomina\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AF5FCAF-4FA8-4916-95A7-D673D8A4242A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D84F9FBA-C345-478B-A2AC-ED4C4BA348DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MAESTRO NÓMINA" sheetId="1" r:id="rId1"/>
     <sheet name="NOVEDADES FN" sheetId="3" r:id="rId2"/>
     <sheet name="NOVEDADES ENE" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="261">
   <si>
     <t>CÓDIGO</t>
   </si>
@@ -698,9 +707,6 @@
     <t>Bonificaciones</t>
   </si>
   <si>
-    <t>UNIDAD_CANTIDAD</t>
-  </si>
-  <si>
     <t>ESTADO</t>
   </si>
   <si>
@@ -716,15 +722,6 @@
     <t>P</t>
   </si>
   <si>
-    <t>DIAS</t>
-  </si>
-  <si>
-    <t>DÍAS</t>
-  </si>
-  <si>
-    <t>HORAS</t>
-  </si>
-  <si>
     <t xml:space="preserve">TIPO_CONTRATO </t>
   </si>
   <si>
@@ -749,9 +746,6 @@
     <t>SALARIO_MINIMO</t>
   </si>
   <si>
-    <t>DINERO</t>
-  </si>
-  <si>
     <t>REMUNERACION</t>
   </si>
   <si>
@@ -773,9 +767,6 @@
     <t xml:space="preserve">PARAMETRO_NOMINA </t>
   </si>
   <si>
-    <t xml:space="preserve">TIPO_NOVEDADES </t>
-  </si>
-  <si>
     <t>NULL</t>
   </si>
   <si>
@@ -783,13 +774,58 @@
   </si>
   <si>
     <t>)</t>
+  </si>
+  <si>
+    <t>ID_CJ_COMPENSACION</t>
+  </si>
+  <si>
+    <t>DESCRIPCION_CMPNSACION</t>
+  </si>
+  <si>
+    <t>ID_PARAMETRO_PRESTACIONES</t>
+  </si>
+  <si>
+    <t>NOMBRE</t>
+  </si>
+  <si>
+    <t>FECHA_VIGENCIA</t>
+  </si>
+  <si>
+    <t>ID_NOMINA</t>
+  </si>
+  <si>
+    <t>SUELDO_TOTAL</t>
+  </si>
+  <si>
+    <t>Cafam</t>
+  </si>
+  <si>
+    <t>Compensar</t>
+  </si>
+  <si>
+    <t>Colsubsidio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TIPO_NOVEDAD </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CJ_COMPENSACION </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOMINA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(SUELDO_DEVENGADO, TRANSPORTE, NUM_DIAS_TRABAJADOS, SUELDO_TOTAL, FECHA_INICIO, ID_EMPLEADO) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PARAMETRO_PRESTACIONES </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -819,14 +855,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -834,13 +862,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -873,7 +894,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -978,22 +999,123 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right/>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom/>
@@ -1002,7 +1124,7 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom/>
@@ -1010,10 +1132,10 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom/>
@@ -1023,7 +1145,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1048,18 +1170,12 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1075,13 +1191,10 @@
     <xf numFmtId="3" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1093,31 +1206,73 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1398,13 +1553,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AG93"/>
+  <dimension ref="A1:AI139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L45" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q59" sqref="Q59"/>
+    <sheetView tabSelected="1" topLeftCell="N51" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R90" sqref="R90"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.7109375" style="3" bestFit="1" customWidth="1"/>
@@ -1412,103 +1567,128 @@
     <col min="4" max="4" width="21.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="32.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="22" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="24.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.85546875" style="3" customWidth="1"/>
-    <col min="18" max="18" width="15.5703125" style="3" customWidth="1"/>
-    <col min="19" max="23" width="11.42578125" style="3"/>
-    <col min="24" max="24" width="15.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="25" max="30" width="11.42578125" style="3"/>
-    <col min="31" max="31" width="28.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="17.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="33" max="16384" width="11.42578125" style="3"/>
+    <col min="7" max="7" width="16.5703125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="20.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.140625" style="3" customWidth="1"/>
+    <col min="12" max="12" width="12.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="32.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="28.140625" style="3" customWidth="1"/>
+    <col min="17" max="17" width="24.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.85546875" style="3" customWidth="1"/>
+    <col min="19" max="19" width="15.5703125" style="3" customWidth="1"/>
+    <col min="20" max="24" width="11.42578125" style="3"/>
+    <col min="25" max="25" width="15.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="26" max="29" width="11.42578125" style="3"/>
+    <col min="30" max="30" width="5" style="3" customWidth="1"/>
+    <col min="31" max="31" width="21.7109375" style="3" customWidth="1"/>
+    <col min="32" max="32" width="28.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="17.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="34" max="16384" width="11.42578125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:34" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="29"/>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="15" t="s">
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="41"/>
+      <c r="O1" s="54"/>
+      <c r="AD1" s="53"/>
+      <c r="AE1" s="39" t="s">
+        <v>257</v>
+      </c>
+      <c r="AF1" s="40"/>
+      <c r="AG1" s="41"/>
+      <c r="AH1" s="54"/>
+    </row>
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A2" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="G2" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="H2" s="15" t="s">
+      <c r="G2" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="H2" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="I2" s="15" t="s">
+      <c r="I2" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="J2" s="15" t="s">
+      <c r="J2" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="K2" s="15" t="s">
+      <c r="K2" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="L2" s="14" t="s">
         <v>184</v>
       </c>
-      <c r="M2" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="N2" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="O2" s="30" t="s">
+      <c r="M2" s="14" t="s">
+        <v>246</v>
+      </c>
+      <c r="N2" s="43" t="s">
+        <v>223</v>
+      </c>
+      <c r="O2" s="15"/>
+      <c r="P2" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="P2" s="32"/>
-      <c r="R2" s="30" t="s">
+      <c r="Q2" s="27"/>
+      <c r="S2" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="S2" s="31"/>
-      <c r="T2" s="31"/>
-      <c r="U2" s="31"/>
-      <c r="V2" s="31"/>
-      <c r="W2" s="31"/>
-      <c r="X2" s="31"/>
-      <c r="Y2" s="31"/>
-      <c r="Z2" s="32"/>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A3" s="16">
+      <c r="T2" s="26"/>
+      <c r="U2" s="26"/>
+      <c r="V2" s="26"/>
+      <c r="W2" s="26"/>
+      <c r="X2" s="26"/>
+      <c r="Y2" s="26"/>
+      <c r="Z2" s="26"/>
+      <c r="AA2" s="27"/>
+      <c r="AD2" s="34"/>
+      <c r="AE2" s="55" t="s">
+        <v>246</v>
+      </c>
+      <c r="AF2" s="14" t="s">
+        <v>247</v>
+      </c>
+      <c r="AG2" s="63" t="s">
+        <v>223</v>
+      </c>
+      <c r="AH2" s="15"/>
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A3" s="56">
         <v>2001</v>
       </c>
       <c r="B3" s="13" t="s">
@@ -1523,12 +1703,10 @@
       <c r="E3" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="F3" s="19" t="s">
+      <c r="F3" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="G3" s="17">
-        <v>4395489</v>
-      </c>
+      <c r="G3" s="16"/>
       <c r="H3" s="12">
         <v>1</v>
       </c>
@@ -1541,29 +1719,40 @@
       <c r="K3" s="12">
         <v>1</v>
       </c>
-      <c r="L3" s="3">
-        <f ca="1">RANDBETWEEN(1,5)</f>
-        <v>5</v>
-      </c>
-      <c r="M3" s="9">
-        <v>39764</v>
-      </c>
-      <c r="N3" s="8">
-        <v>30</v>
-      </c>
-      <c r="O3" s="3" t="s">
+      <c r="L3" s="12">
+        <v>1</v>
+      </c>
+      <c r="M3" s="12">
+        <v>3</v>
+      </c>
+      <c r="N3" s="57" t="s">
+        <v>224</v>
+      </c>
+      <c r="O3" s="15"/>
+      <c r="P3" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="Q3" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="R3" s="3" t="str">
-        <f ca="1">$O$3&amp;$A$1&amp;$O$4&amp;A3&amp;$O$5&amp;$O$6&amp;B3&amp;$P$5&amp;C3&amp;$P$5&amp;D3&amp;$P$5&amp;E3&amp;$P$5&amp;F3&amp;$O$6&amp;$O$5&amp;G3&amp;$O$5&amp;H3&amp;$O$5&amp;I3&amp;$O$5&amp;J3&amp;$O$5&amp;K3&amp;$O$5&amp;L3&amp;$O$5&amp;M3&amp;$O$5&amp;N3&amp;$O$7</f>
-        <v>INSERT INTO EMPLEADO VALUES (2001,'Morgan','Katelin','Moray','Stewart','01-18-2010',4395489,1,1,1,1,5,39764,30);</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A4" s="16">
+      <c r="S3" s="3" t="str">
+        <f>$P$3&amp;$A$1&amp;$P$4&amp;A3&amp;$P$5&amp;$P$6&amp;B3&amp;$Q$5&amp;C3&amp;$Q$5&amp;D3&amp;$Q$5&amp;E3&amp;$Q$5&amp;F3&amp;$P$6&amp;$P$5&amp;$P$6&amp;G3&amp;$P$6&amp;$P$5&amp;H3&amp;$P$5&amp;I3&amp;$P$5&amp;J3&amp;$P$5&amp;K3&amp;$P$5&amp;L3&amp;$P$5&amp;M3&amp;$P$5&amp;$P$6&amp;N3&amp;$P$6&amp;$P$7</f>
+        <v>INSERT INTO EMPLEADO VALUES (2001,'Morgan','Katelin','Moray','Stewart','01-18-2010','',1,1,1,1,1,3,'A');</v>
+      </c>
+      <c r="AD3" s="34"/>
+      <c r="AE3" s="56">
+        <v>1</v>
+      </c>
+      <c r="AF3" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="AG3" s="57" t="s">
+        <v>224</v>
+      </c>
+      <c r="AH3" s="15"/>
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A4" s="56">
         <v>2002</v>
       </c>
       <c r="B4" s="13" t="s">
@@ -1578,12 +1767,10 @@
       <c r="E4" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="F4" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="G4" s="17">
-        <v>3155500</v>
-      </c>
+      <c r="G4" s="16"/>
       <c r="H4" s="12">
         <v>2</v>
       </c>
@@ -1596,29 +1783,40 @@
       <c r="K4" s="12">
         <v>2</v>
       </c>
-      <c r="L4" s="3">
-        <f t="shared" ref="L4:L22" ca="1" si="0">RANDBETWEEN(1,5)</f>
-        <v>5</v>
-      </c>
-      <c r="M4" s="9">
-        <v>27195</v>
-      </c>
-      <c r="N4" s="8">
-        <v>30</v>
-      </c>
-      <c r="O4" s="3" t="s">
+      <c r="L4" s="12">
+        <v>4</v>
+      </c>
+      <c r="M4" s="12">
+        <v>3</v>
+      </c>
+      <c r="N4" s="57" t="s">
+        <v>224</v>
+      </c>
+      <c r="O4" s="15"/>
+      <c r="P4" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="P4" s="3" t="s">
+      <c r="Q4" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="R4" s="3" t="str">
-        <f t="shared" ref="R4:R22" ca="1" si="1">$O$3&amp;$A$1&amp;$O$4&amp;A4&amp;$O$5&amp;$O$6&amp;B4&amp;$P$5&amp;C4&amp;$P$5&amp;D4&amp;$P$5&amp;E4&amp;$P$5&amp;F4&amp;$O$6&amp;$O$5&amp;G4&amp;$O$5&amp;H4&amp;$O$5&amp;I4&amp;$O$5&amp;J4&amp;$O$5&amp;K4&amp;$O$5&amp;L4&amp;$O$5&amp;M4&amp;$O$5&amp;N4&amp;$O$7</f>
-        <v>INSERT INTO EMPLEADO VALUES (2002,'Landyn','Coby','Nogent','Pino','02-19-2011',3155500,2,2,1,2,5,27195,30);</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A5" s="16">
+      <c r="S4" s="3" t="str">
+        <f t="shared" ref="S4:S22" si="0">$P$3&amp;$A$1&amp;$P$4&amp;A4&amp;$P$5&amp;$P$6&amp;B4&amp;$Q$5&amp;C4&amp;$Q$5&amp;D4&amp;$Q$5&amp;E4&amp;$Q$5&amp;F4&amp;$P$6&amp;$P$5&amp;$P$6&amp;G4&amp;$P$6&amp;$P$5&amp;H4&amp;$P$5&amp;I4&amp;$P$5&amp;J4&amp;$P$5&amp;K4&amp;$P$5&amp;L4&amp;$P$5&amp;M4&amp;$P$5&amp;$P$6&amp;N4&amp;$P$6&amp;$P$7</f>
+        <v>INSERT INTO EMPLEADO VALUES (2002,'Landyn','Coby','Nogent','Pino','02-19-2011','',2,2,1,2,4,3,'A');</v>
+      </c>
+      <c r="AD4" s="34"/>
+      <c r="AE4" s="56">
+        <v>2</v>
+      </c>
+      <c r="AF4" s="13" t="s">
+        <v>254</v>
+      </c>
+      <c r="AG4" s="57" t="s">
+        <v>224</v>
+      </c>
+      <c r="AH4" s="15"/>
+    </row>
+    <row r="5" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="56">
         <v>2003</v>
       </c>
       <c r="B5" s="13" t="s">
@@ -1633,12 +1831,10 @@
       <c r="E5" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="F5" s="19" t="s">
+      <c r="F5" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="G5" s="17">
-        <v>3582542</v>
-      </c>
+      <c r="G5" s="16"/>
       <c r="H5" s="12">
         <v>1</v>
       </c>
@@ -1651,29 +1847,40 @@
       <c r="K5" s="12">
         <v>3</v>
       </c>
-      <c r="L5" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="M5" s="9">
-        <v>36305</v>
-      </c>
-      <c r="N5" s="8">
-        <v>30</v>
-      </c>
-      <c r="O5" s="3" t="s">
+      <c r="L5" s="12">
+        <v>3</v>
+      </c>
+      <c r="M5" s="12">
+        <v>3</v>
+      </c>
+      <c r="N5" s="57" t="s">
+        <v>224</v>
+      </c>
+      <c r="O5" s="15"/>
+      <c r="P5" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="P5" s="5" t="s">
+      <c r="Q5" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="R5" s="3" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO EMPLEADO VALUES (2003,'Jacey','Stella','Barton','Harrington','03-20-2012',3582542,1,3,1,3,5,36305,30);</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A6" s="16">
+      <c r="S5" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO EMPLEADO VALUES (2003,'Jacey','Stella','Barton','Harrington','03-20-2012','',1,3,1,3,3,3,'A');</v>
+      </c>
+      <c r="AD5" s="34"/>
+      <c r="AE5" s="58">
+        <v>3</v>
+      </c>
+      <c r="AF5" s="59" t="s">
+        <v>255</v>
+      </c>
+      <c r="AG5" s="62" t="s">
+        <v>224</v>
+      </c>
+      <c r="AH5" s="15"/>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A6" s="56">
         <v>2004</v>
       </c>
       <c r="B6" s="13" t="s">
@@ -1688,12 +1895,10 @@
       <c r="E6" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="F6" s="19" t="s">
+      <c r="F6" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="G6" s="17">
-        <v>3512579</v>
-      </c>
+      <c r="G6" s="16"/>
       <c r="H6" s="12">
         <v>3</v>
       </c>
@@ -1706,29 +1911,32 @@
       <c r="K6" s="12">
         <v>4</v>
       </c>
-      <c r="L6" s="3">
-        <f t="shared" ca="1" si="0"/>
+      <c r="L6" s="12">
         <v>5</v>
       </c>
-      <c r="M6" s="9">
-        <v>7475</v>
-      </c>
-      <c r="N6" s="8">
-        <v>12</v>
-      </c>
-      <c r="O6" s="5" t="s">
+      <c r="M6" s="12">
+        <v>2</v>
+      </c>
+      <c r="N6" s="57" t="s">
+        <v>224</v>
+      </c>
+      <c r="O6" s="15"/>
+      <c r="P6" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="P6" s="5" t="s">
+      <c r="Q6" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="R6" s="3" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO EMPLEADO VALUES (2004,'Joel','Brianna','Olivares','Church','01-18-2011',3512579,3,4,1,4,5,7475,12);</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A7" s="16">
+      <c r="S6" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO EMPLEADO VALUES (2004,'Joel','Brianna','Olivares','Church','01-18-2011','',3,4,1,4,5,2,'A');</v>
+      </c>
+      <c r="AE6" s="38"/>
+      <c r="AF6" s="38"/>
+      <c r="AG6" s="38"/>
+    </row>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A7" s="56">
         <v>2005</v>
       </c>
       <c r="B7" s="13" t="s">
@@ -1743,12 +1951,10 @@
       <c r="E7" s="12" t="s">
         <v>165</v>
       </c>
-      <c r="F7" s="19" t="s">
+      <c r="F7" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="G7" s="17">
-        <v>4016192</v>
-      </c>
+      <c r="G7" s="16"/>
       <c r="H7" s="12">
         <v>1</v>
       </c>
@@ -1761,26 +1967,30 @@
       <c r="K7" s="12">
         <v>1</v>
       </c>
-      <c r="L7" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="M7" s="9">
-        <v>28702</v>
-      </c>
-      <c r="N7" s="8">
-        <v>29</v>
-      </c>
-      <c r="O7" s="3" t="s">
+      <c r="L7" s="12">
+        <v>3</v>
+      </c>
+      <c r="M7" s="12">
+        <v>1</v>
+      </c>
+      <c r="N7" s="57" t="s">
+        <v>224</v>
+      </c>
+      <c r="O7" s="15"/>
+      <c r="P7" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="R7" s="3" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO EMPLEADO VALUES (2005,'Phoenix','Elyssa','Averill','Kelsey','02-19-2012',4016192,1,1,1,1,2,28702,29);</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A8" s="16">
+      <c r="S7" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO EMPLEADO VALUES (2005,'Phoenix','Elyssa','Averill','Kelsey','02-19-2012','',1,1,1,1,3,1,'A');</v>
+      </c>
+      <c r="AE7" s="3" t="str">
+        <f>$P$3&amp;$AE$1&amp;$P$4&amp;AE3&amp;$P$5&amp;$P$6&amp;AF3&amp;$P$6&amp;$P$5&amp;$P$6&amp;AG3&amp;$P$6&amp;$P$7</f>
+        <v>INSERT INTO CJ_COMPENSACION VALUES (1,'Cafam','A');</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A8" s="56">
         <v>2006</v>
       </c>
       <c r="B8" s="13" t="s">
@@ -1795,12 +2005,10 @@
       <c r="E8" s="12" t="s">
         <v>166</v>
       </c>
-      <c r="F8" s="19" t="s">
+      <c r="F8" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="G8" s="17">
-        <v>3410252</v>
-      </c>
+      <c r="G8" s="16"/>
       <c r="H8" s="12">
         <v>4</v>
       </c>
@@ -1813,26 +2021,30 @@
       <c r="K8" s="12">
         <v>4</v>
       </c>
-      <c r="L8" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="M8" s="9">
-        <v>1582</v>
-      </c>
-      <c r="N8" s="8">
-        <v>30</v>
-      </c>
-      <c r="O8" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="R8" s="3" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO EMPLEADO VALUES (2006,'Rhianna','Keira','Orr','Richmond','03-20-2013',3410252,4,2,1,4,3,1582,30);</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A9" s="16">
+      <c r="L8" s="12">
+        <v>4</v>
+      </c>
+      <c r="M8" s="12">
+        <v>1</v>
+      </c>
+      <c r="N8" s="57" t="s">
+        <v>224</v>
+      </c>
+      <c r="O8" s="15"/>
+      <c r="P8" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="S8" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO EMPLEADO VALUES (2006,'Rhianna','Keira','Orr','Richmond','03-20-2013','',4,2,1,4,4,1,'A');</v>
+      </c>
+      <c r="AE8" s="3" t="str">
+        <f t="shared" ref="AE8:AE9" si="1">$P$3&amp;$AE$1&amp;$P$4&amp;AE4&amp;$P$5&amp;$P$6&amp;AF4&amp;$P$6&amp;$P$5&amp;$P$6&amp;AG4&amp;$P$6&amp;$P$7</f>
+        <v>INSERT INTO CJ_COMPENSACION VALUES (2,'Compensar','A');</v>
+      </c>
+    </row>
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A9" s="56">
         <v>2007</v>
       </c>
       <c r="B9" s="13" t="s">
@@ -1847,12 +2059,10 @@
       <c r="E9" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="F9" s="19" t="s">
+      <c r="F9" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="G9" s="17">
-        <v>3122766</v>
-      </c>
+      <c r="G9" s="16"/>
       <c r="H9" s="12">
         <v>5</v>
       </c>
@@ -1865,23 +2075,27 @@
       <c r="K9" s="12">
         <v>3</v>
       </c>
-      <c r="L9" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="M9" s="9">
-        <v>8004</v>
-      </c>
-      <c r="N9" s="8">
-        <v>30</v>
-      </c>
-      <c r="R9" s="3" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO EMPLEADO VALUES (2007,'Mariela','Rodrigo','Holcombe','Harrington','01-18-2012',3122766,5,3,1,3,1,8004,30);</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A10" s="16">
+      <c r="L9" s="12">
+        <v>3</v>
+      </c>
+      <c r="M9" s="12">
+        <v>2</v>
+      </c>
+      <c r="N9" s="57" t="s">
+        <v>224</v>
+      </c>
+      <c r="O9" s="15"/>
+      <c r="S9" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO EMPLEADO VALUES (2007,'Mariela','Rodrigo','Holcombe','Harrington','01-18-2012','',5,3,1,3,3,2,'A');</v>
+      </c>
+      <c r="AE9" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO CJ_COMPENSACION VALUES (3,'Colsubsidio','A');</v>
+      </c>
+    </row>
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A10" s="56">
         <v>2008</v>
       </c>
       <c r="B10" s="13" t="s">
@@ -1896,12 +2110,10 @@
       <c r="E10" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="F10" s="19" t="s">
+      <c r="F10" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="G10" s="17">
-        <v>3852689</v>
-      </c>
+      <c r="G10" s="16"/>
       <c r="H10" s="12">
         <v>6</v>
       </c>
@@ -1914,23 +2126,23 @@
       <c r="K10" s="12">
         <v>2</v>
       </c>
-      <c r="L10" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="M10" s="9">
-        <v>38517</v>
-      </c>
-      <c r="N10" s="8">
-        <v>20</v>
-      </c>
-      <c r="R10" s="3" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO EMPLEADO VALUES (2008,'Alana','Carmen','Guzmán','Meyeul','02-19-2013',3852689,6,4,1,2,4,38517,20);</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A11" s="16">
+      <c r="L10" s="12">
+        <v>1</v>
+      </c>
+      <c r="M10" s="12">
+        <v>1</v>
+      </c>
+      <c r="N10" s="57" t="s">
+        <v>224</v>
+      </c>
+      <c r="O10" s="15"/>
+      <c r="S10" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO EMPLEADO VALUES (2008,'Alana','Carmen','Guzmán','Meyeul','02-19-2013','',6,4,1,2,1,1,'A');</v>
+      </c>
+    </row>
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A11" s="56">
         <v>2009</v>
       </c>
       <c r="B11" s="13" t="s">
@@ -1945,12 +2157,10 @@
       <c r="E11" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="F11" s="19" t="s">
+      <c r="F11" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="G11" s="17">
-        <v>2560603</v>
-      </c>
+      <c r="G11" s="16"/>
       <c r="H11" s="12">
         <v>7</v>
       </c>
@@ -1963,23 +2173,23 @@
       <c r="K11" s="12">
         <v>1</v>
       </c>
-      <c r="L11" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="M11" s="9">
-        <v>14345</v>
-      </c>
-      <c r="N11" s="8">
-        <v>30</v>
-      </c>
-      <c r="R11" s="3" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO EMPLEADO VALUES (2009,'Reuben','Ana','Hastings','Pinto','03-20-2014',2560603,7,1,1,1,5,14345,30);</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A12" s="16">
+      <c r="L11" s="12">
+        <v>3</v>
+      </c>
+      <c r="M11" s="12">
+        <v>1</v>
+      </c>
+      <c r="N11" s="57" t="s">
+        <v>224</v>
+      </c>
+      <c r="O11" s="15"/>
+      <c r="S11" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO EMPLEADO VALUES (2009,'Reuben','Ana','Hastings','Pinto','03-20-2014','',7,1,1,1,3,1,'A');</v>
+      </c>
+    </row>
+    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A12" s="56">
         <v>2010</v>
       </c>
       <c r="B12" s="13" t="s">
@@ -1994,12 +2204,10 @@
       <c r="E12" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="F12" s="19" t="s">
+      <c r="F12" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="G12" s="17">
-        <v>3743655</v>
-      </c>
+      <c r="G12" s="16"/>
       <c r="H12" s="12">
         <v>8</v>
       </c>
@@ -2012,23 +2220,23 @@
       <c r="K12" s="12">
         <v>4</v>
       </c>
-      <c r="L12" s="3">
-        <f t="shared" ca="1" si="0"/>
+      <c r="L12" s="12">
         <v>1</v>
       </c>
-      <c r="M12" s="9">
-        <v>17441</v>
-      </c>
-      <c r="N12" s="8">
-        <v>30</v>
-      </c>
-      <c r="R12" s="3" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO EMPLEADO VALUES (2010,'Johnathan','Chelsey','Andersson','O'Connor','01-18-2013',3743655,8,2,1,4,1,17441,30);</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A13" s="16">
+      <c r="M12" s="12">
+        <v>1</v>
+      </c>
+      <c r="N12" s="57" t="s">
+        <v>224</v>
+      </c>
+      <c r="O12" s="15"/>
+      <c r="S12" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO EMPLEADO VALUES (2010,'Johnathan','Chelsey','Andersson','O'Connor','01-18-2013','',8,2,1,4,1,1,'A');</v>
+      </c>
+    </row>
+    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A13" s="56">
         <v>2011</v>
       </c>
       <c r="B13" s="13" t="s">
@@ -2043,12 +2251,10 @@
       <c r="E13" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="F13" s="19" t="s">
+      <c r="F13" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="G13" s="17">
-        <v>3538638</v>
-      </c>
+      <c r="G13" s="16"/>
       <c r="H13" s="12">
         <v>9</v>
       </c>
@@ -2061,23 +2267,23 @@
       <c r="K13" s="12">
         <v>4</v>
       </c>
-      <c r="L13" s="3">
-        <f t="shared" ca="1" si="0"/>
+      <c r="L13" s="12">
         <v>3</v>
       </c>
-      <c r="M13" s="9">
-        <v>25643</v>
-      </c>
-      <c r="N13" s="8">
-        <v>30</v>
-      </c>
-      <c r="R13" s="3" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO EMPLEADO VALUES (2011,'Kayla','Jack','Tefft','Dearden','02-19-2014',3538638,9,3,1,4,3,25643,30);</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A14" s="16">
+      <c r="M13" s="12">
+        <v>1</v>
+      </c>
+      <c r="N13" s="57" t="s">
+        <v>224</v>
+      </c>
+      <c r="O13" s="15"/>
+      <c r="S13" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO EMPLEADO VALUES (2011,'Kayla','Jack','Tefft','Dearden','02-19-2014','',9,3,1,4,3,1,'A');</v>
+      </c>
+    </row>
+    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A14" s="56">
         <v>2012</v>
       </c>
       <c r="B14" s="13" t="s">
@@ -2092,12 +2298,10 @@
       <c r="E14" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="F14" s="19" t="s">
+      <c r="F14" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="G14" s="17">
-        <v>3124336</v>
-      </c>
+      <c r="G14" s="16"/>
       <c r="H14" s="12">
         <v>6</v>
       </c>
@@ -2110,23 +2314,23 @@
       <c r="K14" s="12">
         <v>2</v>
       </c>
-      <c r="L14" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="M14" s="9">
-        <v>24306</v>
-      </c>
-      <c r="N14" s="8">
-        <v>30</v>
-      </c>
-      <c r="R14" s="3" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO EMPLEADO VALUES (2012,'Morgan','Dayton','Sheppy','Hungerford','03-20-2015',3124336,6,4,1,2,5,24306,30);</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A15" s="16">
+      <c r="L14" s="12">
+        <v>4</v>
+      </c>
+      <c r="M14" s="12">
+        <v>2</v>
+      </c>
+      <c r="N14" s="57" t="s">
+        <v>224</v>
+      </c>
+      <c r="O14" s="15"/>
+      <c r="S14" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO EMPLEADO VALUES (2012,'Morgan','Dayton','Sheppy','Hungerford','03-20-2015','',6,4,1,2,4,2,'A');</v>
+      </c>
+    </row>
+    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A15" s="56">
         <v>2013</v>
       </c>
       <c r="B15" s="13" t="s">
@@ -2141,12 +2345,10 @@
       <c r="E15" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="F15" s="19" t="s">
+      <c r="F15" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="G15" s="17">
-        <v>4177447</v>
-      </c>
+      <c r="G15" s="16"/>
       <c r="H15" s="12">
         <v>10</v>
       </c>
@@ -2159,23 +2361,23 @@
       <c r="K15" s="12">
         <v>1</v>
       </c>
-      <c r="L15" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="M15" s="9">
-        <v>47866</v>
-      </c>
-      <c r="N15" s="8">
-        <v>15</v>
-      </c>
-      <c r="R15" s="3" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO EMPLEADO VALUES (2013,'Nathen','Sherlyn','Moray','Buckingham','01-18-2014',4177447,10,4,1,1,4,47866,15);</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A16" s="16">
+      <c r="L15" s="12">
+        <v>1</v>
+      </c>
+      <c r="M15" s="12">
+        <v>3</v>
+      </c>
+      <c r="N15" s="57" t="s">
+        <v>224</v>
+      </c>
+      <c r="O15" s="15"/>
+      <c r="S15" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO EMPLEADO VALUES (2013,'Nathen','Sherlyn','Moray','Buckingham','01-18-2014','',10,4,1,1,1,3,'A');</v>
+      </c>
+    </row>
+    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A16" s="56">
         <v>2014</v>
       </c>
       <c r="B16" s="13" t="s">
@@ -2190,12 +2392,10 @@
       <c r="E16" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="F16" s="19" t="s">
+      <c r="F16" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="G16" s="17">
-        <v>2735729</v>
-      </c>
+      <c r="G16" s="16"/>
       <c r="H16" s="12">
         <v>8</v>
       </c>
@@ -2208,23 +2408,23 @@
       <c r="K16" s="12">
         <v>3</v>
       </c>
-      <c r="L16" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="M16" s="9">
-        <v>17476</v>
-      </c>
-      <c r="N16" s="8">
-        <v>30</v>
-      </c>
-      <c r="R16" s="3" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO EMPLEADO VALUES (2014,'Carina','Jude','Brandon','Hindon','02-19-2015',2735729,8,1,1,3,1,17476,30);</v>
-      </c>
-    </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A17" s="16">
+      <c r="L16" s="12">
+        <v>5</v>
+      </c>
+      <c r="M16" s="12">
+        <v>3</v>
+      </c>
+      <c r="N16" s="57" t="s">
+        <v>224</v>
+      </c>
+      <c r="O16" s="15"/>
+      <c r="S16" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO EMPLEADO VALUES (2014,'Carina','Jude','Brandon','Hindon','02-19-2015','',8,1,1,3,5,3,'A');</v>
+      </c>
+    </row>
+    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A17" s="56">
         <v>2015</v>
       </c>
       <c r="B17" s="13" t="s">
@@ -2239,12 +2439,10 @@
       <c r="E17" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="F17" s="19" t="s">
+      <c r="F17" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="G17" s="17">
-        <v>3851336</v>
-      </c>
+      <c r="G17" s="16"/>
       <c r="H17" s="12">
         <v>10</v>
       </c>
@@ -2257,23 +2455,23 @@
       <c r="K17" s="12">
         <v>2</v>
       </c>
-      <c r="L17" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="M17" s="9">
-        <v>36141</v>
-      </c>
-      <c r="N17" s="8">
-        <v>30</v>
-      </c>
-      <c r="R17" s="3" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO EMPLEADO VALUES (2015,'Shoshanna','Anton','Hatch','Roland','03-20-2016',3851336,10,2,1,2,4,36141,30);</v>
-      </c>
-    </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A18" s="16">
+      <c r="L17" s="12">
+        <v>1</v>
+      </c>
+      <c r="M17" s="12">
+        <v>1</v>
+      </c>
+      <c r="N17" s="57" t="s">
+        <v>224</v>
+      </c>
+      <c r="O17" s="15"/>
+      <c r="S17" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO EMPLEADO VALUES (2015,'Shoshanna','Anton','Hatch','Roland','03-20-2016','',10,2,1,2,1,1,'A');</v>
+      </c>
+    </row>
+    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A18" s="56">
         <v>2016</v>
       </c>
       <c r="B18" s="13" t="s">
@@ -2288,12 +2486,10 @@
       <c r="E18" s="12" t="s">
         <v>173</v>
       </c>
-      <c r="F18" s="19" t="s">
+      <c r="F18" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="G18" s="17">
-        <v>4062175</v>
-      </c>
+      <c r="G18" s="16"/>
       <c r="H18" s="12">
         <v>11</v>
       </c>
@@ -2306,23 +2502,23 @@
       <c r="K18" s="12">
         <v>3</v>
       </c>
-      <c r="L18" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="M18" s="9">
-        <v>11870</v>
-      </c>
-      <c r="N18" s="8">
-        <v>30</v>
-      </c>
-      <c r="R18" s="3" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO EMPLEADO VALUES (2016,'Tyra','Kaden','Rutherford','Danford','01-18-2015',4062175,11,3,1,3,4,11870,30);</v>
-      </c>
-    </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A19" s="16">
+      <c r="L18" s="12">
+        <v>1</v>
+      </c>
+      <c r="M18" s="12">
+        <v>1</v>
+      </c>
+      <c r="N18" s="57" t="s">
+        <v>224</v>
+      </c>
+      <c r="O18" s="15"/>
+      <c r="S18" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO EMPLEADO VALUES (2016,'Tyra','Kaden','Rutherford','Danford','01-18-2015','',11,3,1,3,1,1,'A');</v>
+      </c>
+    </row>
+    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A19" s="56">
         <v>2017</v>
       </c>
       <c r="B19" s="13" t="s">
@@ -2337,12 +2533,10 @@
       <c r="E19" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="F19" s="19" t="s">
+      <c r="F19" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="G19" s="17">
-        <v>3152891</v>
-      </c>
+      <c r="G19" s="16"/>
       <c r="H19" s="12">
         <v>12</v>
       </c>
@@ -2355,23 +2549,23 @@
       <c r="K19" s="12">
         <v>1</v>
       </c>
-      <c r="L19" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="M19" s="9">
-        <v>11568</v>
-      </c>
-      <c r="N19" s="8">
-        <v>25</v>
-      </c>
-      <c r="R19" s="3" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO EMPLEADO VALUES (2017,'Bryant','Laci','San Martín','Akeman','02-19-2016',3152891,12,4,1,1,2,11568,25);</v>
-      </c>
-    </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A20" s="16">
+      <c r="L19" s="12">
+        <v>4</v>
+      </c>
+      <c r="M19" s="12">
+        <v>1</v>
+      </c>
+      <c r="N19" s="57" t="s">
+        <v>224</v>
+      </c>
+      <c r="O19" s="15"/>
+      <c r="S19" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO EMPLEADO VALUES (2017,'Bryant','Laci','San Martín','Akeman','02-19-2016','',12,4,1,1,4,1,'A');</v>
+      </c>
+    </row>
+    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A20" s="56">
         <v>2018</v>
       </c>
       <c r="B20" s="13" t="s">
@@ -2386,12 +2580,10 @@
       <c r="E20" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="F20" s="19" t="s">
+      <c r="F20" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="G20" s="17">
-        <v>4487658</v>
-      </c>
+      <c r="G20" s="16"/>
       <c r="H20" s="12">
         <v>13</v>
       </c>
@@ -2404,23 +2596,23 @@
       <c r="K20" s="12">
         <v>3</v>
       </c>
-      <c r="L20" s="3">
-        <f t="shared" ca="1" si="0"/>
+      <c r="L20" s="12">
+        <v>1</v>
+      </c>
+      <c r="M20" s="12">
         <v>3</v>
       </c>
-      <c r="M20" s="9">
-        <v>44018</v>
-      </c>
-      <c r="N20" s="8">
-        <v>30</v>
-      </c>
-      <c r="R20" s="3" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO EMPLEADO VALUES (2018,'Angie','Makena','Garrah','MacDonald','03-20-2017',4487658,13,1,1,3,3,44018,30);</v>
-      </c>
-    </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A21" s="16">
+      <c r="N20" s="57" t="s">
+        <v>224</v>
+      </c>
+      <c r="O20" s="15"/>
+      <c r="S20" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO EMPLEADO VALUES (2018,'Angie','Makena','Garrah','MacDonald','03-20-2017','',13,1,1,3,1,3,'A');</v>
+      </c>
+    </row>
+    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A21" s="56">
         <v>2019</v>
       </c>
       <c r="B21" s="13" t="s">
@@ -2435,12 +2627,10 @@
       <c r="E21" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="F21" s="19" t="s">
+      <c r="F21" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="G21" s="17">
-        <v>4240924</v>
-      </c>
+      <c r="G21" s="16"/>
       <c r="H21" s="12">
         <v>14</v>
       </c>
@@ -2453,1898 +2643,2774 @@
       <c r="K21" s="12">
         <v>2</v>
       </c>
-      <c r="L21" s="3">
-        <f t="shared" ca="1" si="0"/>
+      <c r="L21" s="12">
+        <v>4</v>
+      </c>
+      <c r="M21" s="12">
+        <v>1</v>
+      </c>
+      <c r="N21" s="57" t="s">
+        <v>224</v>
+      </c>
+      <c r="O21" s="15"/>
+      <c r="S21" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO EMPLEADO VALUES (2019,'Kayli','Sandy','Stoughton','Moseley','01-18-2016','',14,2,1,2,4,1,'A');</v>
+      </c>
+    </row>
+    <row r="22" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="58">
+        <v>2020</v>
+      </c>
+      <c r="B22" s="59" t="s">
+        <v>119</v>
+      </c>
+      <c r="C22" s="60" t="s">
+        <v>140</v>
+      </c>
+      <c r="D22" s="60" t="s">
+        <v>159</v>
+      </c>
+      <c r="E22" s="60" t="s">
+        <v>177</v>
+      </c>
+      <c r="F22" s="61" t="s">
+        <v>99</v>
+      </c>
+      <c r="G22" s="61"/>
+      <c r="H22" s="60">
+        <v>14</v>
+      </c>
+      <c r="I22" s="60">
+        <v>1</v>
+      </c>
+      <c r="J22" s="60">
+        <v>1</v>
+      </c>
+      <c r="K22" s="60">
         <v>3</v>
       </c>
-      <c r="M21" s="9">
-        <v>25063</v>
-      </c>
-      <c r="N21" s="8">
-        <v>30</v>
-      </c>
-      <c r="R21" s="3" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO EMPLEADO VALUES (2019,'Kayli','Sandy','Stoughton','Moseley','01-18-2016',4240924,14,2,1,2,3,25063,30);</v>
-      </c>
-    </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A22" s="16">
-        <v>2020</v>
-      </c>
-      <c r="B22" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="E22" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="F22" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="G22" s="17">
-        <v>3769836</v>
-      </c>
-      <c r="H22" s="12">
+      <c r="L22" s="60">
+        <v>3</v>
+      </c>
+      <c r="M22" s="60">
+        <v>2</v>
+      </c>
+      <c r="N22" s="62" t="s">
+        <v>224</v>
+      </c>
+      <c r="O22" s="15"/>
+      <c r="S22" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO EMPLEADO VALUES (2020,'Misael','Aileen','Severn','Coote','02-19-2017','',14,1,1,3,3,2,'A');</v>
+      </c>
+    </row>
+    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A23" s="38"/>
+      <c r="B23" s="38"/>
+      <c r="C23" s="38"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="38"/>
+      <c r="H23" s="38"/>
+      <c r="I23" s="38"/>
+      <c r="J23" s="38"/>
+      <c r="K23" s="38"/>
+      <c r="L23" s="38"/>
+      <c r="M23" s="38"/>
+      <c r="N23" s="6"/>
+    </row>
+    <row r="24" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D24" s="35"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="35"/>
+      <c r="I24" s="35"/>
+      <c r="J24" s="35"/>
+      <c r="K24" s="35"/>
+      <c r="N24" s="6"/>
+      <c r="O24" s="6"/>
+      <c r="P24" s="35"/>
+      <c r="Q24" s="35"/>
+    </row>
+    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="C25" s="34"/>
+      <c r="D25" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="E25" s="40"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="34"/>
+      <c r="I25" s="39" t="s">
+        <v>74</v>
+      </c>
+      <c r="J25" s="41"/>
+      <c r="K25" s="15"/>
+      <c r="L25" s="15"/>
+      <c r="M25" s="34"/>
+      <c r="N25" s="39" t="s">
+        <v>228</v>
+      </c>
+      <c r="O25" s="40"/>
+      <c r="P25" s="40"/>
+      <c r="Q25" s="41"/>
+      <c r="R25" s="15"/>
+    </row>
+    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="C26" s="34"/>
+      <c r="D26" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="F26" s="43" t="s">
+        <v>223</v>
+      </c>
+      <c r="G26" s="15"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="J26" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="K26" s="15"/>
+      <c r="L26" s="15"/>
+      <c r="M26" s="34"/>
+      <c r="N26" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="O26" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="P26" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q26" s="43" t="s">
+        <v>223</v>
+      </c>
+      <c r="R26" s="15"/>
+    </row>
+    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="C27" s="34"/>
+      <c r="D27" s="44">
+        <v>1</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F27" s="57" t="s">
+        <v>224</v>
+      </c>
+      <c r="G27" s="15"/>
+      <c r="H27" s="34"/>
+      <c r="I27" s="44">
+        <v>1</v>
+      </c>
+      <c r="J27" s="67" t="s">
+        <v>1</v>
+      </c>
+      <c r="K27" s="15"/>
+      <c r="L27" s="15"/>
+      <c r="M27" s="34"/>
+      <c r="N27" s="44">
+        <v>1</v>
+      </c>
+      <c r="O27" s="33" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q27" s="45" t="s">
+        <v>224</v>
+      </c>
+      <c r="R27" s="15"/>
+    </row>
+    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="C28" s="34"/>
+      <c r="D28" s="44">
+        <v>2</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F28" s="57" t="s">
+        <v>224</v>
+      </c>
+      <c r="G28" s="15"/>
+      <c r="H28" s="34"/>
+      <c r="I28" s="44">
+        <v>2</v>
+      </c>
+      <c r="J28" s="67" t="s">
+        <v>3</v>
+      </c>
+      <c r="K28" s="15"/>
+      <c r="L28" s="15"/>
+      <c r="M28" s="34"/>
+      <c r="N28" s="44">
+        <v>2</v>
+      </c>
+      <c r="O28" s="33" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q28" s="45" t="s">
+        <v>224</v>
+      </c>
+      <c r="R28" s="15"/>
+    </row>
+    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="C29" s="34"/>
+      <c r="D29" s="44">
+        <v>3</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F29" s="57" t="s">
+        <v>224</v>
+      </c>
+      <c r="G29" s="15"/>
+      <c r="H29" s="34"/>
+      <c r="I29" s="44">
+        <v>3</v>
+      </c>
+      <c r="J29" s="67" t="s">
+        <v>2</v>
+      </c>
+      <c r="K29" s="15"/>
+      <c r="L29" s="15"/>
+      <c r="M29" s="34"/>
+      <c r="N29" s="44">
+        <v>3</v>
+      </c>
+      <c r="O29" s="33" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q29" s="45" t="s">
+        <v>224</v>
+      </c>
+      <c r="R29" s="15"/>
+    </row>
+    <row r="30" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C30" s="34"/>
+      <c r="D30" s="46">
+        <v>4</v>
+      </c>
+      <c r="E30" s="60" t="s">
+        <v>27</v>
+      </c>
+      <c r="F30" s="62" t="s">
+        <v>224</v>
+      </c>
+      <c r="G30" s="15"/>
+      <c r="H30" s="34"/>
+      <c r="I30" s="46">
+        <v>4</v>
+      </c>
+      <c r="J30" s="68" t="s">
+        <v>4</v>
+      </c>
+      <c r="K30" s="15"/>
+      <c r="L30" s="15"/>
+      <c r="M30" s="34"/>
+      <c r="N30" s="44">
+        <v>4</v>
+      </c>
+      <c r="O30" s="33" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q30" s="45" t="s">
+        <v>224</v>
+      </c>
+      <c r="R30" s="15"/>
+    </row>
+    <row r="31" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D31" s="38"/>
+      <c r="E31" s="38"/>
+      <c r="F31" s="38"/>
+      <c r="I31" s="38"/>
+      <c r="J31" s="38"/>
+      <c r="K31" s="38"/>
+      <c r="M31" s="34"/>
+      <c r="N31" s="46">
+        <v>5</v>
+      </c>
+      <c r="O31" s="47" t="s">
+        <v>233</v>
+      </c>
+      <c r="P31" s="48"/>
+      <c r="Q31" s="49" t="s">
+        <v>224</v>
+      </c>
+      <c r="R31" s="15"/>
+      <c r="W31" s="39" t="s">
+        <v>244</v>
+      </c>
+      <c r="X31" s="40"/>
+      <c r="Y31" s="40"/>
+      <c r="Z31" s="40"/>
+      <c r="AA31" s="40"/>
+      <c r="AB31" s="41"/>
+      <c r="AC31" s="15"/>
+      <c r="AE31" s="39" t="s">
+        <v>256</v>
+      </c>
+      <c r="AF31" s="40"/>
+      <c r="AG31" s="40"/>
+      <c r="AH31" s="41"/>
+      <c r="AI31" s="15"/>
+    </row>
+    <row r="32" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D32" s="35"/>
+      <c r="E32" s="35"/>
+      <c r="F32" s="35"/>
+      <c r="I32" s="35"/>
+      <c r="J32" s="35"/>
+      <c r="K32" s="35"/>
+      <c r="N32" s="36"/>
+      <c r="O32" s="37"/>
+      <c r="P32" s="38"/>
+      <c r="Q32" s="38"/>
+      <c r="W32" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="X32" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="Y32" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="Z32" s="14" t="s">
+        <v>241</v>
+      </c>
+      <c r="AA32" s="14" t="s">
+        <v>238</v>
+      </c>
+      <c r="AB32" s="63" t="s">
+        <v>239</v>
+      </c>
+      <c r="AC32" s="15"/>
+      <c r="AE32" s="55" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF32" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG32" s="14" t="s">
+        <v>240</v>
+      </c>
+      <c r="AH32" s="63" t="s">
+        <v>223</v>
+      </c>
+      <c r="AI32" s="15"/>
+    </row>
+    <row r="33" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="C33" s="34"/>
+      <c r="D33" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="E33" s="40"/>
+      <c r="F33" s="41"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="34"/>
+      <c r="I33" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="J33" s="40"/>
+      <c r="K33" s="41"/>
+      <c r="L33" s="15"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="10"/>
+      <c r="W33" s="56">
+        <v>1</v>
+      </c>
+      <c r="X33" s="13">
+        <v>2001</v>
+      </c>
+      <c r="Y33" s="12">
         <v>14</v>
       </c>
-      <c r="I22" s="12">
+      <c r="Z33" s="12">
+        <v>649809</v>
+      </c>
+      <c r="AA33" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="AB33" s="64" t="s">
+        <v>243</v>
+      </c>
+      <c r="AC33" s="15"/>
+      <c r="AE33" s="56">
         <v>1</v>
       </c>
-      <c r="J22" s="12">
+      <c r="AF33" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="AG33" s="12">
         <v>1</v>
       </c>
-      <c r="K22" s="12">
+      <c r="AH33" s="57" t="s">
+        <v>224</v>
+      </c>
+      <c r="AI33" s="15"/>
+    </row>
+    <row r="34" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="C34" s="34"/>
+      <c r="D34" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="F34" s="43" t="s">
+        <v>223</v>
+      </c>
+      <c r="G34" s="15"/>
+      <c r="H34" s="34"/>
+      <c r="I34" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="J34" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="K34" s="43" t="s">
+        <v>223</v>
+      </c>
+      <c r="L34" s="15"/>
+      <c r="N34" s="25" t="s">
+        <v>234</v>
+      </c>
+      <c r="O34" s="26"/>
+      <c r="P34" s="27"/>
+      <c r="W34" s="56">
+        <v>2</v>
+      </c>
+      <c r="X34" s="13">
+        <v>2002</v>
+      </c>
+      <c r="Y34" s="12">
+        <v>14</v>
+      </c>
+      <c r="Z34" s="12">
+        <v>328354</v>
+      </c>
+      <c r="AA34" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="AB34" s="64" t="s">
+        <v>243</v>
+      </c>
+      <c r="AC34" s="15"/>
+      <c r="AE34" s="56">
+        <v>2</v>
+      </c>
+      <c r="AF34" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="AG34" s="12">
+        <v>2</v>
+      </c>
+      <c r="AH34" s="57" t="s">
+        <v>224</v>
+      </c>
+      <c r="AI34" s="15"/>
+    </row>
+    <row r="35" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="C35" s="34"/>
+      <c r="D35" s="44">
+        <v>1</v>
+      </c>
+      <c r="E35" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F35" s="57" t="s">
+        <v>224</v>
+      </c>
+      <c r="G35" s="15"/>
+      <c r="H35" s="34"/>
+      <c r="I35" s="44">
+        <v>1</v>
+      </c>
+      <c r="J35" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K35" s="57" t="s">
+        <v>224</v>
+      </c>
+      <c r="L35" s="15"/>
+      <c r="N35" s="3" t="str">
+        <f>$P$3&amp;$N$25 &amp;$P$4&amp;N27&amp;$P$5&amp;$P$6&amp;O27&amp;$P$6&amp;$P$5&amp;P27&amp;$P$5&amp;$P$6&amp;Q27&amp;$P$6&amp;$P$7</f>
+        <v>INSERT INTO TIPO_CONTRATO VALUES (1,'Obra y labor',,'A');</v>
+      </c>
+      <c r="W35" s="56">
         <v>3</v>
       </c>
-      <c r="L22" s="3">
-        <f t="shared" ca="1" si="0"/>
+      <c r="X35" s="13">
+        <v>2003</v>
+      </c>
+      <c r="Y35" s="12">
+        <v>14</v>
+      </c>
+      <c r="Z35" s="12">
+        <v>406552</v>
+      </c>
+      <c r="AA35" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="AB35" s="64" t="s">
+        <v>243</v>
+      </c>
+      <c r="AC35" s="15"/>
+      <c r="AE35" s="56">
+        <v>3</v>
+      </c>
+      <c r="AF35" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="AG35" s="12">
+        <v>3</v>
+      </c>
+      <c r="AH35" s="57" t="s">
+        <v>224</v>
+      </c>
+      <c r="AI35" s="15"/>
+    </row>
+    <row r="36" spans="3:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C36" s="34"/>
+      <c r="D36" s="46">
         <v>2</v>
       </c>
-      <c r="M22" s="20">
-        <v>34270</v>
-      </c>
-      <c r="N22" s="8">
-        <v>30</v>
-      </c>
-      <c r="R22" s="3" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO EMPLEADO VALUES (2020,'Misael','Aileen','Severn','Coote','02-19-2017',3769836,14,1,1,3,2,34270,30);</v>
-      </c>
-    </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="M23" s="6"/>
-      <c r="N23" s="6"/>
-    </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="M24" s="6"/>
-      <c r="N24" s="6"/>
-    </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="E25" s="27" t="s">
-        <v>72</v>
-      </c>
-      <c r="F25" s="29"/>
-      <c r="H25" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="I25" s="29"/>
-      <c r="M25" s="27" t="s">
-        <v>232</v>
-      </c>
-      <c r="N25" s="29"/>
-    </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="E26" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="F26" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="H26" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="I26" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="M26" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="N26" s="11" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="E27" s="12">
-        <v>1</v>
-      </c>
-      <c r="F27" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="H27" s="12">
-        <v>1</v>
-      </c>
-      <c r="I27" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="M27" s="12">
-        <v>1</v>
-      </c>
-      <c r="N27" s="21" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="E28" s="12">
+      <c r="E36" s="60" t="s">
+        <v>52</v>
+      </c>
+      <c r="F36" s="62" t="s">
+        <v>224</v>
+      </c>
+      <c r="G36" s="15"/>
+      <c r="H36" s="34"/>
+      <c r="I36" s="44">
         <v>2</v>
       </c>
-      <c r="F28" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="H28" s="12">
-        <v>2</v>
-      </c>
-      <c r="I28" s="13" t="s">
+      <c r="J36" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="K36" s="57" t="s">
+        <v>224</v>
+      </c>
+      <c r="L36" s="15"/>
+      <c r="N36" s="3" t="str">
+        <f t="shared" ref="N36:N39" si="2">$P$3&amp;$N$25 &amp;$P$4&amp;N28&amp;$P$5&amp;$P$6&amp;O28&amp;$P$6&amp;$P$5&amp;P28&amp;$P$5&amp;$P$6&amp;Q28&amp;$P$6&amp;$P$7</f>
+        <v>INSERT INTO TIPO_CONTRATO VALUES (2,'Trabajo a término fijo',,'A');</v>
+      </c>
+      <c r="W36" s="56">
+        <v>4</v>
+      </c>
+      <c r="X36" s="13">
+        <v>2004</v>
+      </c>
+      <c r="Y36" s="12">
+        <v>14</v>
+      </c>
+      <c r="Z36" s="12">
+        <v>670106</v>
+      </c>
+      <c r="AA36" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="AB36" s="64" t="s">
+        <v>243</v>
+      </c>
+      <c r="AC36" s="15"/>
+      <c r="AE36" s="56">
+        <v>4</v>
+      </c>
+      <c r="AF36" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="AG36" s="12">
+        <v>4</v>
+      </c>
+      <c r="AH36" s="57" t="s">
+        <v>224</v>
+      </c>
+      <c r="AI36" s="15"/>
+    </row>
+    <row r="37" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="D37" s="38"/>
+      <c r="E37" s="38"/>
+      <c r="F37" s="38"/>
+      <c r="H37" s="34"/>
+      <c r="I37" s="44">
         <v>3</v>
       </c>
-      <c r="M28" s="12">
-        <v>2</v>
-      </c>
-      <c r="N28" s="21" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="E29" s="12">
-        <v>3</v>
-      </c>
-      <c r="F29" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="H29" s="12">
-        <v>3</v>
-      </c>
-      <c r="I29" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="M29" s="12">
-        <v>3</v>
-      </c>
-      <c r="N29" s="21" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="E30" s="12">
+      <c r="J37" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="K37" s="57" t="s">
+        <v>224</v>
+      </c>
+      <c r="L37" s="15"/>
+      <c r="N37" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO TIPO_CONTRATO VALUES (3,'Trabajo a término indefinido',,'A');</v>
+      </c>
+      <c r="W37" s="56">
+        <v>5</v>
+      </c>
+      <c r="X37" s="13">
+        <v>2005</v>
+      </c>
+      <c r="Y37" s="12">
+        <v>14</v>
+      </c>
+      <c r="Z37" s="12">
+        <v>228523</v>
+      </c>
+      <c r="AA37" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="AB37" s="64" t="s">
+        <v>243</v>
+      </c>
+      <c r="AC37" s="15"/>
+      <c r="AE37" s="56">
+        <v>5</v>
+      </c>
+      <c r="AF37" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="AG37" s="12">
+        <v>5</v>
+      </c>
+      <c r="AH37" s="57" t="s">
+        <v>224</v>
+      </c>
+      <c r="AI37" s="15"/>
+    </row>
+    <row r="38" spans="3:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H38" s="34"/>
+      <c r="I38" s="46">
         <v>4</v>
       </c>
-      <c r="F30" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="H30" s="12">
-        <v>4</v>
-      </c>
-      <c r="I30" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="M30" s="12">
-        <v>4</v>
-      </c>
-      <c r="N30" s="21" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="M31" s="12">
-        <v>5</v>
-      </c>
-      <c r="N31" s="21" t="s">
-        <v>237</v>
-      </c>
-      <c r="V31" s="34" t="s">
-        <v>250</v>
-      </c>
-      <c r="W31" s="34"/>
-      <c r="X31" s="34"/>
-      <c r="Y31" s="34"/>
-      <c r="Z31" s="33"/>
-      <c r="AD31" s="30" t="s">
-        <v>248</v>
-      </c>
-      <c r="AE31" s="31"/>
-      <c r="AF31" s="31"/>
-      <c r="AG31" s="32"/>
-    </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="M32" s="2"/>
-      <c r="N32" s="10"/>
-      <c r="V32" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="W32" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="X32" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="Y32" s="23" t="s">
-        <v>246</v>
-      </c>
-      <c r="Z32" s="25" t="s">
+      <c r="J38" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="K38" s="62" t="s">
+        <v>224</v>
+      </c>
+      <c r="L38" s="15"/>
+      <c r="N38" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO TIPO_CONTRATO VALUES (4,'Aprendizaje',,'A');</v>
+      </c>
+      <c r="W38" s="56">
+        <v>6</v>
+      </c>
+      <c r="X38" s="13">
+        <v>2006</v>
+      </c>
+      <c r="Y38" s="12">
+        <v>14</v>
+      </c>
+      <c r="Z38" s="12">
+        <v>494233</v>
+      </c>
+      <c r="AA38" s="12" t="s">
         <v>243</v>
       </c>
-      <c r="AA32" s="25" t="s">
-        <v>244</v>
-      </c>
-      <c r="AD32" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="AE32" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="AF32" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="AG32" s="3" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="33" spans="4:33" x14ac:dyDescent="0.25">
-      <c r="E33" s="27" t="s">
-        <v>73</v>
-      </c>
-      <c r="F33" s="29"/>
-      <c r="H33" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="I33" s="29"/>
-      <c r="M33" s="2"/>
-      <c r="N33" s="10"/>
-      <c r="V33" s="1">
-        <v>1</v>
-      </c>
-      <c r="W33" s="16">
-        <v>2001</v>
-      </c>
-      <c r="X33" s="8">
+      <c r="AB38" s="64" t="s">
+        <v>243</v>
+      </c>
+      <c r="AC38" s="15"/>
+      <c r="AE38" s="56">
+        <v>6</v>
+      </c>
+      <c r="AF38" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="AG38" s="12">
+        <v>6</v>
+      </c>
+      <c r="AH38" s="57" t="s">
+        <v>224</v>
+      </c>
+      <c r="AI38" s="15"/>
+    </row>
+    <row r="39" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="I39" s="38"/>
+      <c r="J39" s="38"/>
+      <c r="K39" s="38"/>
+      <c r="N39" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO TIPO_CONTRATO VALUES (5,'Temporal, ocasional o accidental',,'A');</v>
+      </c>
+      <c r="O39" s="10"/>
+      <c r="W39" s="56">
+        <v>7</v>
+      </c>
+      <c r="X39" s="13">
+        <v>2007</v>
+      </c>
+      <c r="Y39" s="12">
         <v>14</v>
       </c>
-      <c r="Y33" s="36">
-        <v>649809</v>
-      </c>
-      <c r="Z33" s="26" t="s">
-        <v>249</v>
-      </c>
-      <c r="AA33" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="AD33" s="3">
-        <v>1</v>
-      </c>
-      <c r="AE33" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="AF33" s="3">
-        <v>1</v>
-      </c>
-      <c r="AG33" s="3" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="34" spans="4:33" x14ac:dyDescent="0.25">
-      <c r="E34" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="F34" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="H34" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="I34" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="M34" s="30" t="s">
-        <v>238</v>
-      </c>
-      <c r="N34" s="31"/>
-      <c r="O34" s="32"/>
-      <c r="V34" s="1">
-        <v>2</v>
-      </c>
-      <c r="W34" s="16">
-        <v>2002</v>
-      </c>
-      <c r="X34" s="8">
+      <c r="Z39" s="12">
+        <v>818017</v>
+      </c>
+      <c r="AA39" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="AB39" s="64" t="s">
+        <v>243</v>
+      </c>
+      <c r="AC39" s="15"/>
+      <c r="AE39" s="56">
+        <v>7</v>
+      </c>
+      <c r="AF39" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="AG39" s="12">
+        <v>7</v>
+      </c>
+      <c r="AH39" s="57" t="s">
+        <v>224</v>
+      </c>
+      <c r="AI39" s="15"/>
+    </row>
+    <row r="40" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="N40" s="2"/>
+      <c r="O40" s="10"/>
+      <c r="W40" s="56">
+        <v>8</v>
+      </c>
+      <c r="X40" s="13">
+        <v>2008</v>
+      </c>
+      <c r="Y40" s="12">
         <v>14</v>
       </c>
-      <c r="Y34" s="37">
-        <v>328354</v>
-      </c>
-      <c r="Z34" s="26" t="s">
-        <v>249</v>
-      </c>
-      <c r="AA34" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="AD34" s="3">
-        <v>2</v>
-      </c>
-      <c r="AE34" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="AF34" s="3">
-        <v>2</v>
-      </c>
-      <c r="AG34" s="3" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="35" spans="4:33" x14ac:dyDescent="0.25">
-      <c r="E35" s="12">
-        <v>1</v>
-      </c>
-      <c r="F35" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="H35" s="12">
-        <v>1</v>
-      </c>
-      <c r="I35" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="M35" s="3" t="str">
-        <f>$O$3&amp;$M$25 &amp;$O$4&amp;M27&amp;$O$5&amp;$O$6&amp;N27&amp;$P$6</f>
-        <v>INSERT INTO TIPO_CONTRATO VALUES (1,'Obra y labor');</v>
-      </c>
-      <c r="V35" s="1">
-        <v>3</v>
-      </c>
-      <c r="W35" s="16">
-        <v>2003</v>
-      </c>
-      <c r="X35" s="8">
+      <c r="Z40" s="12">
+        <v>569760</v>
+      </c>
+      <c r="AA40" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="AB40" s="64" t="s">
+        <v>243</v>
+      </c>
+      <c r="AC40" s="15"/>
+      <c r="AE40" s="56">
+        <v>8</v>
+      </c>
+      <c r="AF40" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="AG40" s="12">
+        <v>8</v>
+      </c>
+      <c r="AH40" s="57" t="s">
+        <v>224</v>
+      </c>
+      <c r="AI40" s="15"/>
+    </row>
+    <row r="41" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="N41" s="2"/>
+      <c r="O41" s="10"/>
+      <c r="W41" s="56">
+        <v>9</v>
+      </c>
+      <c r="X41" s="13">
+        <v>2009</v>
+      </c>
+      <c r="Y41" s="12">
         <v>14</v>
       </c>
-      <c r="Y35" s="37">
-        <v>406552</v>
-      </c>
-      <c r="Z35" s="26" t="s">
-        <v>249</v>
-      </c>
-      <c r="AA35" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="AD35" s="3">
-        <v>3</v>
-      </c>
-      <c r="AE35" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="AF35" s="3">
-        <v>3</v>
-      </c>
-      <c r="AG35" s="3" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="36" spans="4:33" x14ac:dyDescent="0.25">
-      <c r="E36" s="12">
-        <v>2</v>
-      </c>
-      <c r="F36" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="H36" s="12">
-        <v>2</v>
-      </c>
-      <c r="I36" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="M36" s="3" t="str">
-        <f t="shared" ref="M36:M39" si="2">$O$3&amp;$M$25 &amp;$O$4&amp;M28&amp;$O$5&amp;$O$6&amp;N28&amp;$P$6</f>
-        <v>INSERT INTO TIPO_CONTRATO VALUES (2,'Trabajo a término fijo');</v>
-      </c>
-      <c r="V36" s="1">
-        <v>4</v>
-      </c>
-      <c r="W36" s="16">
-        <v>2004</v>
-      </c>
-      <c r="X36" s="8">
+      <c r="Z41" s="12">
+        <v>336775</v>
+      </c>
+      <c r="AA41" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="AB41" s="64" t="s">
+        <v>243</v>
+      </c>
+      <c r="AC41" s="15"/>
+      <c r="AE41" s="56">
+        <v>9</v>
+      </c>
+      <c r="AF41" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="AG41" s="12">
+        <v>9</v>
+      </c>
+      <c r="AH41" s="57" t="s">
+        <v>224</v>
+      </c>
+      <c r="AI41" s="15"/>
+    </row>
+    <row r="42" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="N42" s="2"/>
+      <c r="W42" s="56">
+        <v>10</v>
+      </c>
+      <c r="X42" s="13">
+        <v>2010</v>
+      </c>
+      <c r="Y42" s="12">
         <v>14</v>
       </c>
-      <c r="Y36" s="37">
-        <v>670106</v>
-      </c>
-      <c r="Z36" s="26" t="s">
-        <v>249</v>
-      </c>
-      <c r="AA36" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="AD36" s="3">
-        <v>4</v>
-      </c>
-      <c r="AE36" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="AF36" s="3">
-        <v>4</v>
-      </c>
-      <c r="AG36" s="3" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="37" spans="4:33" x14ac:dyDescent="0.25">
-      <c r="H37" s="12">
-        <v>3</v>
-      </c>
-      <c r="I37" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="M37" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>INSERT INTO TIPO_CONTRATO VALUES (3,'Trabajo a término indefinido');</v>
-      </c>
-      <c r="V37" s="1">
-        <v>5</v>
-      </c>
-      <c r="W37" s="16">
-        <v>2005</v>
-      </c>
-      <c r="X37" s="8">
+      <c r="Z42" s="12">
+        <v>632261</v>
+      </c>
+      <c r="AA42" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="AB42" s="64" t="s">
+        <v>243</v>
+      </c>
+      <c r="AC42" s="15"/>
+      <c r="AE42" s="56">
+        <v>10</v>
+      </c>
+      <c r="AF42" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="AG42" s="12">
+        <v>10</v>
+      </c>
+      <c r="AH42" s="57" t="s">
+        <v>224</v>
+      </c>
+      <c r="AI42" s="15"/>
+    </row>
+    <row r="43" spans="3:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D43" s="15"/>
+      <c r="E43" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="F43" s="26"/>
+      <c r="G43" s="23"/>
+      <c r="I43" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="J43" s="26"/>
+      <c r="K43" s="27"/>
+      <c r="N43" s="2"/>
+      <c r="O43" s="35"/>
+      <c r="P43" s="35"/>
+      <c r="Q43" s="35"/>
+      <c r="R43" s="35"/>
+      <c r="S43" s="35"/>
+      <c r="T43" s="35"/>
+      <c r="W43" s="56">
+        <v>11</v>
+      </c>
+      <c r="X43" s="13">
+        <v>2011</v>
+      </c>
+      <c r="Y43" s="12">
         <v>14</v>
       </c>
-      <c r="Y37" s="37">
-        <v>228523</v>
-      </c>
-      <c r="Z37" s="26" t="s">
-        <v>249</v>
-      </c>
-      <c r="AA37" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="AD37" s="3">
-        <v>5</v>
-      </c>
-      <c r="AE37" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="AF37" s="3">
-        <v>5</v>
-      </c>
-      <c r="AG37" s="3" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="38" spans="4:33" x14ac:dyDescent="0.25">
-      <c r="H38" s="12">
-        <v>4</v>
-      </c>
-      <c r="I38" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="M38" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>INSERT INTO TIPO_CONTRATO VALUES (4,'Aprendizaje');</v>
-      </c>
-      <c r="V38" s="1">
-        <v>6</v>
-      </c>
-      <c r="W38" s="16">
-        <v>2006</v>
-      </c>
-      <c r="X38" s="8">
-        <v>14</v>
-      </c>
-      <c r="Y38" s="37">
-        <v>494233</v>
-      </c>
-      <c r="Z38" s="26" t="s">
-        <v>249</v>
-      </c>
-      <c r="AA38" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="AD38" s="3">
-        <v>6</v>
-      </c>
-      <c r="AE38" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="AF38" s="3">
-        <v>6</v>
-      </c>
-      <c r="AG38" s="3" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="39" spans="4:33" x14ac:dyDescent="0.25">
-      <c r="M39" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>INSERT INTO TIPO_CONTRATO VALUES (5,'Temporal, ocasional o accidental');</v>
-      </c>
-      <c r="N39" s="10"/>
-      <c r="V39" s="1">
-        <v>7</v>
-      </c>
-      <c r="W39" s="16">
-        <v>2007</v>
-      </c>
-      <c r="X39" s="8">
-        <v>14</v>
-      </c>
-      <c r="Y39" s="37">
-        <v>818017</v>
-      </c>
-      <c r="Z39" s="26" t="s">
-        <v>249</v>
-      </c>
-      <c r="AA39" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="AD39" s="3">
-        <v>7</v>
-      </c>
-      <c r="AE39" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="AF39" s="3">
-        <v>7</v>
-      </c>
-      <c r="AG39" s="3" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="40" spans="4:33" x14ac:dyDescent="0.25">
-      <c r="M40" s="2"/>
-      <c r="N40" s="10"/>
-      <c r="V40" s="1">
-        <v>8</v>
-      </c>
-      <c r="W40" s="16">
-        <v>2008</v>
-      </c>
-      <c r="X40" s="8">
-        <v>14</v>
-      </c>
-      <c r="Y40" s="37">
-        <v>569760</v>
-      </c>
-      <c r="Z40" s="26" t="s">
-        <v>249</v>
-      </c>
-      <c r="AA40" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="AD40" s="3">
-        <v>8</v>
-      </c>
-      <c r="AE40" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="AF40" s="3">
-        <v>8</v>
-      </c>
-      <c r="AG40" s="3" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="41" spans="4:33" x14ac:dyDescent="0.25">
-      <c r="M41" s="2"/>
-      <c r="N41" s="10"/>
-      <c r="V41" s="1">
-        <v>9</v>
-      </c>
-      <c r="W41" s="16">
-        <v>2009</v>
-      </c>
-      <c r="X41" s="8">
-        <v>14</v>
-      </c>
-      <c r="Y41" s="37">
-        <v>336775</v>
-      </c>
-      <c r="Z41" s="26" t="s">
-        <v>249</v>
-      </c>
-      <c r="AA41" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="AD41" s="3">
-        <v>9</v>
-      </c>
-      <c r="AE41" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="AF41" s="3">
-        <v>9</v>
-      </c>
-      <c r="AG41" s="3" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="42" spans="4:33" x14ac:dyDescent="0.25">
-      <c r="M42" s="2"/>
-      <c r="V42" s="1">
-        <v>10</v>
-      </c>
-      <c r="W42" s="16">
-        <v>2010</v>
-      </c>
-      <c r="X42" s="8">
-        <v>14</v>
-      </c>
-      <c r="Y42" s="37">
-        <v>632261</v>
-      </c>
-      <c r="Z42" s="26" t="s">
-        <v>249</v>
-      </c>
-      <c r="AA42" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="AD42" s="3">
-        <v>10</v>
-      </c>
-      <c r="AE42" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="AF42" s="3">
-        <v>10</v>
-      </c>
-      <c r="AG42" s="3" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="43" spans="4:33" x14ac:dyDescent="0.25">
-      <c r="D43" s="18"/>
-      <c r="E43" s="30" t="s">
-        <v>71</v>
-      </c>
-      <c r="F43" s="31"/>
-      <c r="H43" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="I43" s="31"/>
-      <c r="J43" s="32"/>
-      <c r="M43" s="2"/>
-      <c r="V43" s="1">
+      <c r="Z43" s="12">
+        <v>157647</v>
+      </c>
+      <c r="AA43" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="AB43" s="64" t="s">
+        <v>243</v>
+      </c>
+      <c r="AC43" s="15"/>
+      <c r="AE43" s="56">
         <v>11</v>
       </c>
-      <c r="W43" s="16">
-        <v>2011</v>
-      </c>
-      <c r="X43" s="8">
-        <v>14</v>
-      </c>
-      <c r="Y43" s="37">
-        <v>157647</v>
-      </c>
-      <c r="Z43" s="26" t="s">
-        <v>249</v>
-      </c>
-      <c r="AA43" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="AD43" s="3">
+      <c r="AF43" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="AG43" s="12">
         <v>11</v>
       </c>
-      <c r="AE43" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="AF43" s="3">
-        <v>11</v>
-      </c>
-      <c r="AG43" s="3" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="44" spans="4:33" x14ac:dyDescent="0.25">
+      <c r="AH43" s="57" t="s">
+        <v>224</v>
+      </c>
+      <c r="AI43" s="15"/>
+    </row>
+    <row r="44" spans="3:35" x14ac:dyDescent="0.25">
       <c r="E44" s="3" t="str">
-        <f>$O$3&amp;$E$25&amp;$O$4&amp;E27&amp;$O$5&amp;$O$6&amp;F27&amp;$P$6</f>
-        <v>INSERT INTO EPS VALUES (1,'EPS-Sanitas');</v>
-      </c>
-      <c r="H44" s="3" t="str">
-        <f>$O$3&amp;$H$25&amp;$O$4&amp;H27&amp;$O$5&amp;$O$6&amp;I27&amp;$P$6</f>
+        <f>$P$3&amp;$D$25&amp;$P$4&amp;D27&amp;$P$5&amp;$P$6&amp;E27&amp;$P$6&amp;$P$5&amp;$P$6&amp;F27&amp;$P$6&amp;$P$7</f>
+        <v>INSERT INTO EPS VALUES (1,'EPS-Sanitas','A');</v>
+      </c>
+      <c r="I44" s="3" t="str">
+        <f>$P$3&amp;$I$25&amp;$P$4&amp;I27&amp;$P$5&amp;$P$6&amp;J27&amp;$P$6&amp;$P$7</f>
         <v>INSERT INTO DEPENDENCIA VALUES (1,'Tecnología');</v>
       </c>
-      <c r="M44" s="2"/>
-      <c r="N44" s="39" t="s">
-        <v>247</v>
-      </c>
-      <c r="O44" s="40"/>
+      <c r="N44" s="66"/>
+      <c r="O44" s="39" t="s">
+        <v>242</v>
+      </c>
       <c r="P44" s="40"/>
       <c r="Q44" s="40"/>
       <c r="R44" s="40"/>
       <c r="S44" s="41"/>
-      <c r="V44" s="1">
+      <c r="T44" s="15"/>
+      <c r="U44" s="15"/>
+      <c r="W44" s="56">
         <v>12</v>
       </c>
-      <c r="W44" s="16">
+      <c r="X44" s="13">
         <v>2012</v>
       </c>
-      <c r="X44" s="8">
+      <c r="Y44" s="12">
         <v>14</v>
       </c>
-      <c r="Y44" s="37">
+      <c r="Z44" s="12">
         <v>442282</v>
       </c>
-      <c r="Z44" s="26" t="s">
-        <v>249</v>
-      </c>
-      <c r="AA44" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="AD44" s="3">
+      <c r="AA44" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="AB44" s="64" t="s">
+        <v>243</v>
+      </c>
+      <c r="AC44" s="15"/>
+      <c r="AE44" s="56">
         <v>12</v>
       </c>
-      <c r="AE44" s="3" t="s">
+      <c r="AF44" s="13" t="s">
         <v>220</v>
       </c>
-      <c r="AF44" s="3">
+      <c r="AG44" s="12">
         <v>12</v>
       </c>
-      <c r="AG44" s="3" t="s">
+      <c r="AH44" s="57" t="s">
+        <v>224</v>
+      </c>
+      <c r="AI44" s="15"/>
+    </row>
+    <row r="45" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="E45" s="3" t="str">
+        <f>$P$3&amp;$D$25&amp;$P$4&amp;D28&amp;$P$5&amp;$P$6&amp;E28&amp;$P$6&amp;$P$5&amp;$P$6&amp;F28&amp;$P$6&amp;$P$7</f>
+        <v>INSERT INTO EPS VALUES (2,'Aliansalud EPS','A');</v>
+      </c>
+      <c r="I45" s="3" t="str">
+        <f t="shared" ref="I45:I47" si="3">$P$3&amp;$I$25&amp;$P$4&amp;I28&amp;$P$5&amp;$P$6&amp;J28&amp;$P$6&amp;$P$7</f>
+        <v>INSERT INTO DEPENDENCIA VALUES (2,'Facturación');</v>
+      </c>
+      <c r="N45" s="66"/>
+      <c r="O45" s="55" t="s">
+        <v>199</v>
+      </c>
+      <c r="P45" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q45" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="R45" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="S45" s="63" t="s">
+        <v>223</v>
+      </c>
+      <c r="T45" s="15"/>
+      <c r="U45" s="15"/>
+      <c r="W45" s="56">
+        <v>13</v>
+      </c>
+      <c r="X45" s="13">
+        <v>2013</v>
+      </c>
+      <c r="Y45" s="12">
+        <v>14</v>
+      </c>
+      <c r="Z45" s="12">
+        <v>542140</v>
+      </c>
+      <c r="AA45" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="AB45" s="64" t="s">
+        <v>243</v>
+      </c>
+      <c r="AC45" s="15"/>
+      <c r="AE45" s="56">
+        <v>13</v>
+      </c>
+      <c r="AF45" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="AG45" s="12">
+        <v>13</v>
+      </c>
+      <c r="AH45" s="57" t="s">
+        <v>224</v>
+      </c>
+      <c r="AI45" s="15"/>
+    </row>
+    <row r="46" spans="3:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E46" s="3" t="str">
+        <f>$P$3&amp;$D$25&amp;$P$4&amp;D29&amp;$P$5&amp;$P$6&amp;E29&amp;$P$6&amp;$P$5&amp;$P$6&amp;F29&amp;$P$6&amp;$P$7</f>
+        <v>INSERT INTO EPS VALUES (3,'Nueva EPS','A');</v>
+      </c>
+      <c r="I46" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO DEPENDENCIA VALUES (3,'Contabilidad');</v>
+      </c>
+      <c r="N46" s="34"/>
+      <c r="O46" s="56">
+        <v>1</v>
+      </c>
+      <c r="P46" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q46" s="12">
+        <v>100</v>
+      </c>
+      <c r="R46" s="12" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="45" spans="4:33" x14ac:dyDescent="0.25">
-      <c r="E45" s="3" t="str">
-        <f>$O$3&amp;$E$25&amp;$O$4&amp;E28&amp;$O$5&amp;$O$6&amp;F28&amp;$P$6</f>
-        <v>INSERT INTO EPS VALUES (2,'Aliansalud EPS');</v>
-      </c>
-      <c r="H45" s="3" t="str">
-        <f>$O$3&amp;$H$25&amp;$O$4&amp;H28&amp;$O$5&amp;$O$6&amp;I28&amp;$P$6</f>
-        <v>INSERT INTO DEPENDENCIA VALUES (2,'Facturación');</v>
-      </c>
-      <c r="M45" s="2"/>
-      <c r="N45" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="O45" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="P45" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="Q45" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="R45" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="S45" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="V45" s="1">
+      <c r="S46" s="64" t="s">
+        <v>224</v>
+      </c>
+      <c r="T46" s="15"/>
+      <c r="U46" s="15"/>
+      <c r="W46" s="56">
+        <v>14</v>
+      </c>
+      <c r="X46" s="13">
+        <v>2014</v>
+      </c>
+      <c r="Y46" s="12">
+        <v>14</v>
+      </c>
+      <c r="Z46" s="12">
+        <v>890426</v>
+      </c>
+      <c r="AA46" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="AB46" s="64" t="s">
+        <v>243</v>
+      </c>
+      <c r="AC46" s="15"/>
+      <c r="AE46" s="58">
+        <v>14</v>
+      </c>
+      <c r="AF46" s="59" t="s">
+        <v>222</v>
+      </c>
+      <c r="AG46" s="60">
+        <v>14</v>
+      </c>
+      <c r="AH46" s="62" t="s">
+        <v>224</v>
+      </c>
+      <c r="AI46" s="15"/>
+    </row>
+    <row r="47" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="E47" s="3" t="str">
+        <f>$P$3&amp;$D$25&amp;$P$4&amp;D30&amp;$P$5&amp;$P$6&amp;E30&amp;$P$6&amp;$P$5&amp;$P$6&amp;F30&amp;$P$6&amp;$P$7</f>
+        <v>INSERT INTO EPS VALUES (4,'EPS-Sura','A');</v>
+      </c>
+      <c r="I47" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO DEPENDENCIA VALUES (4,'Comercial');</v>
+      </c>
+      <c r="N47" s="34"/>
+      <c r="O47" s="56">
+        <v>2</v>
+      </c>
+      <c r="P47" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q47" s="12">
+        <v>100</v>
+      </c>
+      <c r="R47" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="S47" s="64" t="s">
+        <v>224</v>
+      </c>
+      <c r="T47" s="15"/>
+      <c r="U47" s="15"/>
+      <c r="W47" s="56">
+        <v>15</v>
+      </c>
+      <c r="X47" s="13">
+        <v>2015</v>
+      </c>
+      <c r="Y47" s="12">
+        <v>14</v>
+      </c>
+      <c r="Z47" s="12">
+        <v>552774</v>
+      </c>
+      <c r="AA47" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="AB47" s="64" t="s">
+        <v>243</v>
+      </c>
+      <c r="AC47" s="15"/>
+      <c r="AE47" s="38"/>
+      <c r="AF47" s="38"/>
+      <c r="AG47" s="38"/>
+      <c r="AH47" s="38"/>
+    </row>
+    <row r="48" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="N48" s="34"/>
+      <c r="O48" s="56">
+        <v>3</v>
+      </c>
+      <c r="P48" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q48" s="12">
+        <v>100</v>
+      </c>
+      <c r="R48" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="S48" s="64" t="s">
+        <v>224</v>
+      </c>
+      <c r="T48" s="15"/>
+      <c r="U48" s="15"/>
+      <c r="W48" s="56">
+        <v>16</v>
+      </c>
+      <c r="X48" s="13">
+        <v>2016</v>
+      </c>
+      <c r="Y48" s="12">
+        <v>14</v>
+      </c>
+      <c r="Z48" s="12">
+        <v>557368</v>
+      </c>
+      <c r="AA48" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="AB48" s="64" t="s">
+        <v>243</v>
+      </c>
+      <c r="AC48" s="15"/>
+    </row>
+    <row r="49" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="E49" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="F49" s="27"/>
+      <c r="G49" s="24"/>
+      <c r="I49" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="J49" s="26"/>
+      <c r="K49" s="26"/>
+      <c r="L49" s="27"/>
+      <c r="N49" s="34"/>
+      <c r="O49" s="56">
+        <v>4</v>
+      </c>
+      <c r="P49" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q49" s="12">
+        <v>0</v>
+      </c>
+      <c r="R49" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="S49" s="64" t="s">
+        <v>224</v>
+      </c>
+      <c r="T49" s="15"/>
+      <c r="U49" s="15"/>
+      <c r="W49" s="56">
+        <v>17</v>
+      </c>
+      <c r="X49" s="13">
+        <v>2017</v>
+      </c>
+      <c r="Y49" s="12">
+        <v>14</v>
+      </c>
+      <c r="Z49" s="12">
+        <v>37847</v>
+      </c>
+      <c r="AA49" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="AB49" s="64" t="s">
+        <v>243</v>
+      </c>
+      <c r="AC49" s="15"/>
+      <c r="AE49" s="3" t="str">
+        <f>$P$3&amp;$AE$31&amp;$P$4&amp;AE33&amp;$P$5&amp;$P$6&amp;AF33&amp;$P$6&amp;$P$5&amp;AG33&amp;$P$5&amp;$P$6&amp;AH33&amp;$Q$6</f>
+        <v>INSERT INTO TIPO_NOVEDAD VALUES (1,'Licencia de luto',1,'A');</v>
+      </c>
+    </row>
+    <row r="50" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="E50" s="3" t="str">
+        <f>$P$3&amp;$D$33&amp;$P$4&amp;D35&amp;$P$5&amp;$P$6&amp;E35&amp;$P$6&amp;$P$5&amp;$P$6&amp;F35&amp;$P$6&amp;$P$7</f>
+        <v>INSERT INTO ARL VALUES (1,'Positiva','A');</v>
+      </c>
+      <c r="I50" s="3" t="str">
+        <f>$P$3&amp;$I$33&amp;$P$4&amp;I35&amp;$P$5&amp;$P$6&amp;J35&amp;$P$6&amp;$P$5&amp;$P$6&amp;K35&amp;$P$6&amp;$P$7</f>
+        <v>INSERT INTO PENSION VALUES (1,'Colpensiones','A');</v>
+      </c>
+      <c r="N50" s="34"/>
+      <c r="O50" s="56">
+        <v>5</v>
+      </c>
+      <c r="P50" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q50" s="12">
+        <v>100</v>
+      </c>
+      <c r="R50" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="S50" s="64" t="s">
+        <v>224</v>
+      </c>
+      <c r="T50" s="15"/>
+      <c r="U50" s="15"/>
+      <c r="W50" s="56">
+        <v>18</v>
+      </c>
+      <c r="X50" s="13">
+        <v>2018</v>
+      </c>
+      <c r="Y50" s="12">
+        <v>14</v>
+      </c>
+      <c r="Z50" s="12">
+        <v>391789</v>
+      </c>
+      <c r="AA50" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="AB50" s="64" t="s">
+        <v>243</v>
+      </c>
+      <c r="AC50" s="15"/>
+      <c r="AE50" s="3" t="str">
+        <f t="shared" ref="AE50:AE62" si="4">$P$3&amp;$AE$31 &amp;$P$4&amp;AE34&amp;$P$5&amp;$P$6&amp;AF34&amp;$P$6&amp;$P$5&amp;AG34&amp;$P$5&amp;$P$6&amp;AH34&amp;$Q$6</f>
+        <v>INSERT INTO TIPO_NOVEDAD VALUES (2,'Licencia de maternidad',2,'A');</v>
+      </c>
+    </row>
+    <row r="51" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="E51" s="3" t="str">
+        <f>$P$3&amp;$D$33&amp;$P$4&amp;D36&amp;$P$5&amp;$P$6&amp;E36&amp;$P$6&amp;$P$5&amp;$P$6&amp;F36&amp;$P$6&amp;$P$7</f>
+        <v>INSERT INTO ARL VALUES (2,'Negativa','A');</v>
+      </c>
+      <c r="I51" s="3" t="str">
+        <f t="shared" ref="I51:I53" si="5">$P$3&amp;$I$33&amp;$P$4&amp;I36&amp;$P$5&amp;$P$6&amp;J36&amp;$P$6&amp;$P$5&amp;$P$6&amp;K36&amp;$P$6&amp;$P$7</f>
+        <v>INSERT INTO PENSION VALUES (2,'Protección','A');</v>
+      </c>
+      <c r="N51" s="34"/>
+      <c r="O51" s="56">
+        <v>6</v>
+      </c>
+      <c r="P51" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q51" s="12">
+        <v>100</v>
+      </c>
+      <c r="R51" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="S51" s="64" t="s">
+        <v>224</v>
+      </c>
+      <c r="T51" s="15"/>
+      <c r="U51" s="15"/>
+      <c r="W51" s="56">
+        <v>19</v>
+      </c>
+      <c r="X51" s="13">
+        <v>2019</v>
+      </c>
+      <c r="Y51" s="12">
+        <v>14</v>
+      </c>
+      <c r="Z51" s="12">
+        <v>515406</v>
+      </c>
+      <c r="AA51" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="AB51" s="64" t="s">
+        <v>243</v>
+      </c>
+      <c r="AC51" s="15"/>
+      <c r="AE51" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO TIPO_NOVEDAD VALUES (3,'Licencia de parternidad',3,'A');</v>
+      </c>
+    </row>
+    <row r="52" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I52" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>INSERT INTO PENSION VALUES (3,'Provenir','A');</v>
+      </c>
+      <c r="N52" s="34"/>
+      <c r="O52" s="56">
+        <v>7</v>
+      </c>
+      <c r="P52" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q52" s="12">
+        <v>100</v>
+      </c>
+      <c r="R52" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="S52" s="64" t="s">
+        <v>224</v>
+      </c>
+      <c r="T52" s="15"/>
+      <c r="U52" s="15"/>
+      <c r="W52" s="58">
+        <v>20</v>
+      </c>
+      <c r="X52" s="59">
+        <v>2020</v>
+      </c>
+      <c r="Y52" s="60">
+        <v>14</v>
+      </c>
+      <c r="Z52" s="60">
+        <v>94347</v>
+      </c>
+      <c r="AA52" s="60" t="s">
+        <v>243</v>
+      </c>
+      <c r="AB52" s="65" t="s">
+        <v>243</v>
+      </c>
+      <c r="AC52" s="15"/>
+      <c r="AE52" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO TIPO_NOVEDAD VALUES (4,'Licencia no remunerada',4,'A');</v>
+      </c>
+    </row>
+    <row r="53" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="I53" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>INSERT INTO PENSION VALUES (4,'Skandia','A');</v>
+      </c>
+      <c r="N53" s="34"/>
+      <c r="O53" s="56">
+        <v>8</v>
+      </c>
+      <c r="P53" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q53" s="12">
+        <v>0.35</v>
+      </c>
+      <c r="R53" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="S53" s="64" t="s">
+        <v>224</v>
+      </c>
+      <c r="T53" s="15"/>
+      <c r="U53" s="15"/>
+      <c r="AE53" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO TIPO_NOVEDAD VALUES (5,'Incapacidad común',5,'A');</v>
+      </c>
+    </row>
+    <row r="54" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="N54" s="34"/>
+      <c r="O54" s="56">
+        <v>9</v>
+      </c>
+      <c r="P54" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q54" s="12">
+        <v>1.25</v>
+      </c>
+      <c r="R54" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="S54" s="64" t="s">
+        <v>224</v>
+      </c>
+      <c r="T54" s="15"/>
+      <c r="U54" s="15"/>
+      <c r="AE54" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO TIPO_NOVEDAD VALUES (6,'Incapacidad medica laboral',6,'A');</v>
+      </c>
+    </row>
+    <row r="55" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="N55" s="34"/>
+      <c r="O55" s="56">
+        <v>10</v>
+      </c>
+      <c r="P55" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q55" s="12">
+        <v>1.75</v>
+      </c>
+      <c r="R55" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="S55" s="64" t="s">
+        <v>224</v>
+      </c>
+      <c r="T55" s="15"/>
+      <c r="U55" s="15"/>
+      <c r="AE55" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO TIPO_NOVEDAD VALUES (7,'Vacaciones',7,'A');</v>
+      </c>
+    </row>
+    <row r="56" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="N56" s="34"/>
+      <c r="O56" s="56">
+        <v>11</v>
+      </c>
+      <c r="P56" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q56" s="12">
+        <v>1.75</v>
+      </c>
+      <c r="R56" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="S56" s="64" t="s">
+        <v>224</v>
+      </c>
+      <c r="T56" s="15"/>
+      <c r="U56" s="15"/>
+      <c r="AE56" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO TIPO_NOVEDAD VALUES (8,'Recargo nocturno',8,'A');</v>
+      </c>
+    </row>
+    <row r="57" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="N57" s="34"/>
+      <c r="O57" s="56">
+        <v>12</v>
+      </c>
+      <c r="P57" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q57" s="12">
+        <v>2</v>
+      </c>
+      <c r="R57" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="S57" s="64" t="s">
+        <v>224</v>
+      </c>
+      <c r="T57" s="15"/>
+      <c r="U57" s="15"/>
+      <c r="AE57" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO TIPO_NOVEDAD VALUES (9,'Hora extra diurna',9,'A');</v>
+      </c>
+    </row>
+    <row r="58" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="N58" s="34"/>
+      <c r="O58" s="56">
         <v>13</v>
       </c>
-      <c r="W45" s="16">
-        <v>2013</v>
-      </c>
-      <c r="X45" s="8">
+      <c r="P58" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q58" s="12">
+        <v>2.5</v>
+      </c>
+      <c r="R58" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="S58" s="64" t="s">
+        <v>224</v>
+      </c>
+      <c r="T58" s="15"/>
+      <c r="U58" s="15"/>
+      <c r="AE58" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO TIPO_NOVEDAD VALUES (10,'Hora extra nocturna',10,'A');</v>
+      </c>
+    </row>
+    <row r="59" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="N59" s="34"/>
+      <c r="O59" s="56">
         <v>14</v>
       </c>
-      <c r="Y45" s="37">
-        <v>542140</v>
-      </c>
-      <c r="Z45" s="26" t="s">
-        <v>249</v>
-      </c>
-      <c r="AA45" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="AD45" s="3">
-        <v>13</v>
-      </c>
-      <c r="AE45" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="AF45" s="3">
-        <v>13</v>
-      </c>
-      <c r="AG45" s="3" t="s">
+      <c r="P59" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q59" s="12">
+        <v>0</v>
+      </c>
+      <c r="R59" s="12" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="46" spans="4:33" x14ac:dyDescent="0.25">
-      <c r="E46" s="3" t="str">
-        <f>$O$3&amp;$E$25&amp;$O$4&amp;E29&amp;$O$5&amp;$O$6&amp;F29&amp;$P$6</f>
-        <v>INSERT INTO EPS VALUES (3,'Nueva EPS');</v>
-      </c>
-      <c r="H46" s="3" t="str">
-        <f>$O$3&amp;$H$25&amp;$O$4&amp;H29&amp;$O$5&amp;$O$6&amp;I29&amp;$P$6</f>
-        <v>INSERT INTO DEPENDENCIA VALUES (3,'Contabilidad');</v>
-      </c>
-      <c r="N46" s="3">
-        <v>1</v>
-      </c>
-      <c r="O46" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="P46" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q46" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="R46" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="S46" s="3" t="s">
+      <c r="S59" s="64" t="s">
+        <v>224</v>
+      </c>
+      <c r="T59" s="15"/>
+      <c r="U59" s="15"/>
+      <c r="AE59" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO TIPO_NOVEDAD VALUES (11,'Hora extra dominical',11,'A');</v>
+      </c>
+    </row>
+    <row r="60" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N60" s="34"/>
+      <c r="O60" s="56">
+        <v>15</v>
+      </c>
+      <c r="P60" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q60" s="12">
+        <v>1300606</v>
+      </c>
+      <c r="R60" s="12" t="s">
         <v>225</v>
       </c>
-      <c r="V46" s="1">
-        <v>14</v>
-      </c>
-      <c r="W46" s="16">
-        <v>2014</v>
-      </c>
-      <c r="X46" s="8">
-        <v>14</v>
-      </c>
-      <c r="Y46" s="37">
-        <v>890426</v>
-      </c>
-      <c r="Z46" s="26" t="s">
-        <v>249</v>
-      </c>
-      <c r="AA46" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="AD46" s="3">
-        <v>14</v>
-      </c>
-      <c r="AE46" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="AF46" s="3">
-        <v>14</v>
-      </c>
-      <c r="AG46" s="3" t="s">
+      <c r="S60" s="64" t="s">
+        <v>224</v>
+      </c>
+      <c r="T60" s="15"/>
+      <c r="U60" s="15"/>
+      <c r="AE60" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO TIPO_NOVEDAD VALUES (12,'Hora extra diurna dominical',12,'A');</v>
+      </c>
+    </row>
+    <row r="61" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="B61" s="40"/>
+      <c r="C61" s="40"/>
+      <c r="D61" s="40"/>
+      <c r="E61" s="41"/>
+      <c r="F61" s="15"/>
+      <c r="N61" s="34"/>
+      <c r="O61" s="58">
+        <v>16</v>
+      </c>
+      <c r="P61" s="59" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q61" s="60">
+        <v>15050000</v>
+      </c>
+      <c r="R61" s="60" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="47" spans="4:33" x14ac:dyDescent="0.25">
-      <c r="E47" s="3" t="str">
-        <f>$O$3&amp;$E$25&amp;$O$4&amp;E30&amp;$O$5&amp;$O$6&amp;F30&amp;$P$6</f>
-        <v>INSERT INTO EPS VALUES (4,'EPS-Sura');</v>
-      </c>
-      <c r="H47" s="3" t="str">
-        <f>$O$3&amp;$H$25&amp;$O$4&amp;H30&amp;$O$5&amp;$O$6&amp;I30&amp;$P$6</f>
-        <v>INSERT INTO DEPENDENCIA VALUES (4,'Comercial');</v>
-      </c>
-      <c r="N47" s="3">
-        <v>2</v>
-      </c>
-      <c r="O47" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="P47" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q47" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="R47" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="S47" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="V47" s="1">
-        <v>15</v>
-      </c>
-      <c r="W47" s="16">
-        <v>2015</v>
-      </c>
-      <c r="X47" s="8">
-        <v>14</v>
-      </c>
-      <c r="Y47" s="37">
-        <v>552774</v>
-      </c>
-      <c r="Z47" s="26" t="s">
-        <v>249</v>
-      </c>
-      <c r="AA47" s="3" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="48" spans="4:33" x14ac:dyDescent="0.25">
-      <c r="N48" s="3">
-        <v>3</v>
-      </c>
-      <c r="O48" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="P48" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q48" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="R48" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="S48" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="V48" s="1">
-        <v>16</v>
-      </c>
-      <c r="W48" s="16">
-        <v>2016</v>
-      </c>
-      <c r="X48" s="8">
-        <v>14</v>
-      </c>
-      <c r="Y48" s="37">
-        <v>557368</v>
-      </c>
-      <c r="Z48" s="26" t="s">
-        <v>249</v>
-      </c>
-      <c r="AA48" s="3" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="49" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="E49" s="30" t="s">
-        <v>75</v>
-      </c>
-      <c r="F49" s="32"/>
-      <c r="H49" s="30" t="s">
-        <v>77</v>
-      </c>
-      <c r="I49" s="31"/>
-      <c r="J49" s="31"/>
-      <c r="K49" s="32"/>
-      <c r="N49" s="3">
-        <v>4</v>
-      </c>
-      <c r="O49" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="P49" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q49" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="R49" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="S49" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="V49" s="1">
-        <v>17</v>
-      </c>
-      <c r="W49" s="16">
-        <v>2017</v>
-      </c>
-      <c r="X49" s="8">
-        <v>14</v>
-      </c>
-      <c r="Y49" s="37">
-        <v>37847</v>
-      </c>
-      <c r="Z49" s="26" t="s">
-        <v>249</v>
-      </c>
-      <c r="AA49" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="AD49" s="3" t="str">
-        <f>$O$3&amp;$AD$31 &amp;$O$4&amp;AD33&amp;$O$5&amp;$O$6&amp;AE33&amp;$O$6&amp;$O$5&amp;AF33&amp;$O$5&amp;$O$6&amp;AG33&amp;$P$6</f>
-        <v>INSERT INTO TIPO_NOVEDADES VALUES (1,'Licencia de luto',1,'A');</v>
-      </c>
-    </row>
-    <row r="50" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="E50" s="3" t="str">
-        <f>$O$3&amp;$E$33&amp;$O$4&amp;E35&amp;$O$5&amp;$O$6&amp;F35&amp;$P$6</f>
-        <v>INSERT INTO ARL VALUES (1,'Positiva');</v>
-      </c>
-      <c r="H50" s="3" t="str">
-        <f>$O$3&amp;$H$33&amp;$O$4&amp;H35&amp;$O$5&amp;$O$6&amp;I35&amp;$P$6</f>
-        <v>INSERT INTO PENSION VALUES (1,'Colpensiones');</v>
-      </c>
-      <c r="N50" s="3">
-        <v>5</v>
-      </c>
-      <c r="O50" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="P50" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q50" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="R50" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="S50" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="V50" s="1">
-        <v>18</v>
-      </c>
-      <c r="W50" s="16">
-        <v>2018</v>
-      </c>
-      <c r="X50" s="8">
-        <v>14</v>
-      </c>
-      <c r="Y50" s="37">
-        <v>391789</v>
-      </c>
-      <c r="Z50" s="26" t="s">
-        <v>249</v>
-      </c>
-      <c r="AA50" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="AD50" s="3" t="str">
-        <f t="shared" ref="AD50:AD64" si="3">$O$3&amp;$AD$31 &amp;$O$4&amp;AD34&amp;$O$5&amp;$O$6&amp;AE34&amp;$O$6&amp;$O$5&amp;AF34&amp;$O$5&amp;$O$6&amp;AG34&amp;$P$6</f>
-        <v>INSERT INTO TIPO_NOVEDADES VALUES (2,'Licencia de maternidad',2,'A');</v>
-      </c>
-    </row>
-    <row r="51" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="E51" s="3" t="str">
-        <f>$O$3&amp;$E$33&amp;$O$4&amp;E36&amp;$O$5&amp;$O$6&amp;F36&amp;$P$6</f>
-        <v>INSERT INTO ARL VALUES (2,'Negativa');</v>
-      </c>
-      <c r="H51" s="3" t="str">
-        <f>$O$3&amp;$H$33&amp;$O$4&amp;H36&amp;$O$5&amp;$O$6&amp;I36&amp;$P$6</f>
-        <v>INSERT INTO PENSION VALUES (2,'Protección');</v>
-      </c>
-      <c r="N51" s="3">
-        <v>6</v>
-      </c>
-      <c r="O51" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="P51" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q51" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="R51" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="S51" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="V51" s="1">
-        <v>19</v>
-      </c>
-      <c r="W51" s="16">
-        <v>2019</v>
-      </c>
-      <c r="X51" s="8">
-        <v>14</v>
-      </c>
-      <c r="Y51" s="37">
-        <v>515406</v>
-      </c>
-      <c r="Z51" s="26" t="s">
-        <v>249</v>
-      </c>
-      <c r="AA51" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="AD51" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>INSERT INTO TIPO_NOVEDADES VALUES (3,'Licencia de parternidad',3,'A');</v>
-      </c>
-    </row>
-    <row r="52" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="H52" s="3" t="str">
-        <f>$O$3&amp;$H$33&amp;$O$4&amp;H37&amp;$O$5&amp;$O$6&amp;I37&amp;$P$6</f>
-        <v>INSERT INTO PENSION VALUES (3,'Provenir');</v>
-      </c>
-      <c r="N52" s="3">
-        <v>7</v>
-      </c>
-      <c r="O52" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="P52" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q52" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="R52" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="S52" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="V52" s="1">
-        <v>20</v>
-      </c>
-      <c r="W52" s="16">
-        <v>2020</v>
-      </c>
-      <c r="X52" s="8">
-        <v>14</v>
-      </c>
-      <c r="Y52" s="38">
-        <v>94347</v>
-      </c>
-      <c r="Z52" s="26" t="s">
-        <v>249</v>
-      </c>
-      <c r="AA52" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="AD52" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>INSERT INTO TIPO_NOVEDADES VALUES (4,'Licencia no remunerada',4,'A');</v>
-      </c>
-    </row>
-    <row r="53" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="H53" s="3" t="str">
-        <f>$O$3&amp;$H$33&amp;$O$4&amp;H38&amp;$O$5&amp;$O$6&amp;I38&amp;$P$6</f>
-        <v>INSERT INTO PENSION VALUES (4,'Skandia');</v>
-      </c>
-      <c r="N53" s="3">
-        <v>8</v>
-      </c>
-      <c r="O53" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="P53" s="3">
-        <v>0.35</v>
-      </c>
-      <c r="Q53" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="R53" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="S53" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="AD53" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>INSERT INTO TIPO_NOVEDADES VALUES (5,'Incapacidad común',5,'A');</v>
-      </c>
-    </row>
-    <row r="54" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="N54" s="3">
-        <v>9</v>
-      </c>
-      <c r="O54" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="P54" s="3">
-        <v>1.25</v>
-      </c>
-      <c r="Q54" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="R54" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="S54" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="AD54" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>INSERT INTO TIPO_NOVEDADES VALUES (6,'Incapacidad medica laboral',6,'A');</v>
-      </c>
-    </row>
-    <row r="55" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="N55" s="3">
-        <v>10</v>
-      </c>
-      <c r="O55" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="P55" s="3">
-        <v>1.75</v>
-      </c>
-      <c r="Q55" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="R55" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="S55" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="AD55" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>INSERT INTO TIPO_NOVEDADES VALUES (7,'Vacaciones',7,'A');</v>
-      </c>
-    </row>
-    <row r="56" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="N56" s="3">
-        <v>11</v>
-      </c>
-      <c r="O56" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="P56" s="3">
-        <v>1.75</v>
-      </c>
-      <c r="Q56" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="R56" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="S56" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="AD56" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>INSERT INTO TIPO_NOVEDADES VALUES (8,'Recargo nocturno',8,'A');</v>
-      </c>
-    </row>
-    <row r="57" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="N57" s="3">
-        <v>12</v>
-      </c>
-      <c r="O57" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="P57" s="3">
-        <v>2</v>
-      </c>
-      <c r="Q57" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="R57" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="S57" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="AD57" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>INSERT INTO TIPO_NOVEDADES VALUES (9,'Hora extra diurna',9,'A');</v>
-      </c>
-    </row>
-    <row r="58" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="N58" s="3">
-        <v>13</v>
-      </c>
-      <c r="O58" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="P58" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="Q58" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="R58" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="S58" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="AD58" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>INSERT INTO TIPO_NOVEDADES VALUES (10,'Hora extra nocturna',10,'A');</v>
-      </c>
-    </row>
-    <row r="59" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="N59" s="3">
-        <v>14</v>
-      </c>
-      <c r="O59" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="P59" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q59" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="R59" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="S59" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="AD59" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>INSERT INTO TIPO_NOVEDADES VALUES (11,'Hora extra dominical',11,'A');</v>
-      </c>
-    </row>
-    <row r="60" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="N60" s="3">
-        <v>15</v>
-      </c>
-      <c r="O60" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="P60" s="3">
-        <v>1300606</v>
-      </c>
-      <c r="Q60" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="R60" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="S60" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="AD60" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>INSERT INTO TIPO_NOVEDADES VALUES (12,'Hora extra diurna dominical',12,'A');</v>
-      </c>
-    </row>
-    <row r="61" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A61" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="B61" s="28"/>
-      <c r="C61" s="28"/>
-      <c r="D61" s="29"/>
-      <c r="N61" s="3">
-        <v>16</v>
-      </c>
-      <c r="O61" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="P61" s="3">
-        <v>15050000</v>
-      </c>
-      <c r="Q61" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="R61" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="S61" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="AD61" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>INSERT INTO TIPO_NOVEDADES VALUES (13,'Hora extra nocturna dominical',13,'A');</v>
-      </c>
-    </row>
-    <row r="62" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A62" s="11" t="s">
+      <c r="S61" s="65" t="s">
+        <v>224</v>
+      </c>
+      <c r="T61" s="15"/>
+      <c r="U61" s="15"/>
+      <c r="AE61" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO TIPO_NOVEDAD VALUES (13,'Hora extra nocturna dominical',13,'A');</v>
+      </c>
+    </row>
+    <row r="62" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A62" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="B62" s="11" t="s">
+      <c r="B62" s="14" t="s">
         <v>50</v>
       </c>
       <c r="C62" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="D62" s="3" t="s">
+      <c r="D62" s="14" t="s">
         <v>182</v>
       </c>
-      <c r="E62" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="U62" s="3" t="str">
-        <f>$O$3&amp;$V$31 &amp;$O$4&amp;V33&amp;$O$5&amp;W33&amp;$O$5&amp;X33&amp;$O$5&amp;Y33&amp;$O$5&amp;Z33&amp;$O$5&amp;AA33&amp;$O$7</f>
+      <c r="E62" s="63" t="s">
+        <v>223</v>
+      </c>
+      <c r="F62" s="15"/>
+      <c r="O62" s="38"/>
+      <c r="P62" s="38"/>
+      <c r="Q62" s="38"/>
+      <c r="R62" s="38"/>
+      <c r="S62" s="38"/>
+      <c r="T62" s="38"/>
+      <c r="V62" s="3" t="str">
+        <f t="shared" ref="V62:V75" si="6">$P$3&amp;$W$31 &amp;$P$4&amp;W33&amp;$P$5&amp;X33&amp;$P$5&amp;Y33&amp;$P$5&amp;Z33&amp;$P$5&amp;AA33&amp;$P$5&amp;AB33&amp;$P$7</f>
         <v>INSERT INTO NOVEDAD VALUES (1,2001,14,649809,NULL,NULL);</v>
       </c>
-      <c r="AD62" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>INSERT INTO TIPO_NOVEDADES VALUES (14,'Bonificaciones',14,'A');</v>
-      </c>
-    </row>
-    <row r="63" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A63" s="12">
+      <c r="AE62" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO TIPO_NOVEDAD VALUES (14,'Bonificaciones',14,'A');</v>
+      </c>
+    </row>
+    <row r="63" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A63" s="56">
         <v>1</v>
       </c>
-      <c r="B63" s="12" t="s">
+      <c r="B63" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C63" s="13">
+      <c r="C63" s="12">
         <v>1</v>
       </c>
-      <c r="D63" s="35">
+      <c r="D63" s="12">
         <v>5000000</v>
       </c>
-      <c r="E63" s="3" t="s">
+      <c r="E63" s="57" t="s">
+        <v>224</v>
+      </c>
+      <c r="F63" s="15"/>
+      <c r="V63" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>INSERT INTO NOVEDAD VALUES (2,2002,14,328354,NULL,NULL);</v>
+      </c>
+    </row>
+    <row r="64" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A64" s="56">
+        <v>2</v>
+      </c>
+      <c r="B64" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C64" s="12">
+        <v>2</v>
+      </c>
+      <c r="D64" s="12">
+        <v>1350000</v>
+      </c>
+      <c r="E64" s="57" t="s">
+        <v>224</v>
+      </c>
+      <c r="F64" s="15"/>
+      <c r="O64" s="3" t="str">
+        <f>$P$3&amp;$O$44 &amp;$P$4&amp;O46&amp;$P$5&amp;$P$6&amp;P46&amp;$P$6&amp;$P$5&amp;Q46&amp;$P$5&amp;$P$6&amp;R46&amp;$Q$5&amp;S46&amp;$Q$6</f>
+        <v>INSERT INTO PARAMETRO_NOMINA VALUES (1,'Licencia de luto',100,'S','A');</v>
+      </c>
+      <c r="V64" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>INSERT INTO NOVEDAD VALUES (3,2003,14,406552,NULL,NULL);</v>
+      </c>
+    </row>
+    <row r="65" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A65" s="56">
+        <v>3</v>
+      </c>
+      <c r="B65" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C65" s="12">
+        <v>3</v>
+      </c>
+      <c r="D65" s="12">
+        <v>3000000</v>
+      </c>
+      <c r="E65" s="57" t="s">
+        <v>224</v>
+      </c>
+      <c r="F65" s="15"/>
+      <c r="O65" s="3" t="str">
+        <f>$P$3&amp;$O$44 &amp;$P$4&amp;O47&amp;$P$5&amp;$P$6&amp;P47&amp;$P$6&amp;$P$5&amp;Q47&amp;$P$5&amp;$P$6&amp;R47&amp;$Q$5&amp;S47&amp;$Q$6</f>
+        <v>INSERT INTO PARAMETRO_NOMINA VALUES (2,'Licencia de maternidad',100,'S','A');</v>
+      </c>
+      <c r="V65" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>INSERT INTO NOVEDAD VALUES (4,2004,14,670106,NULL,NULL);</v>
+      </c>
+    </row>
+    <row r="66" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A66" s="56">
+        <v>4</v>
+      </c>
+      <c r="B66" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C66" s="12">
+        <v>4</v>
+      </c>
+      <c r="D66" s="12">
+        <v>5000000</v>
+      </c>
+      <c r="E66" s="57" t="s">
+        <v>224</v>
+      </c>
+      <c r="F66" s="15"/>
+      <c r="O66" s="3" t="str">
+        <f>$P$3&amp;$O$44 &amp;$P$4&amp;O48&amp;$P$5&amp;$P$6&amp;P48&amp;$P$6&amp;$P$5&amp;Q48&amp;$P$5&amp;$P$6&amp;R48&amp;$Q$5&amp;S48&amp;$Q$6</f>
+        <v>INSERT INTO PARAMETRO_NOMINA VALUES (3,'Licencia de parternidad',100,'S','A');</v>
+      </c>
+      <c r="V66" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>INSERT INTO NOVEDAD VALUES (5,2005,14,228523,NULL,NULL);</v>
+      </c>
+    </row>
+    <row r="67" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A67" s="56">
+        <v>5</v>
+      </c>
+      <c r="B67" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C67" s="12">
+        <v>2</v>
+      </c>
+      <c r="D67" s="12">
+        <v>2500000</v>
+      </c>
+      <c r="E67" s="57" t="s">
+        <v>224</v>
+      </c>
+      <c r="F67" s="15"/>
+      <c r="O67" s="3" t="str">
+        <f>$P$3&amp;$O$44 &amp;$P$4&amp;O49&amp;$P$5&amp;$P$6&amp;P49&amp;$P$6&amp;$P$5&amp;Q49&amp;$P$5&amp;$P$6&amp;R49&amp;$Q$5&amp;S49&amp;$Q$6</f>
+        <v>INSERT INTO PARAMETRO_NOMINA VALUES (4,'Licencia no remunerada',0,'N','A');</v>
+      </c>
+      <c r="V67" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>INSERT INTO NOVEDAD VALUES (6,2006,14,494233,NULL,NULL);</v>
+      </c>
+    </row>
+    <row r="68" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A68" s="56">
+        <v>6</v>
+      </c>
+      <c r="B68" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C68" s="12">
+        <v>1</v>
+      </c>
+      <c r="D68" s="12">
+        <v>2500000</v>
+      </c>
+      <c r="E68" s="57" t="s">
+        <v>224</v>
+      </c>
+      <c r="F68" s="15"/>
+      <c r="O68" s="3" t="str">
+        <f>$P$3&amp;$O$44 &amp;$P$4&amp;O50&amp;$P$5&amp;$P$6&amp;P50&amp;$P$6&amp;$P$5&amp;Q50&amp;$P$5&amp;$P$6&amp;R50&amp;$Q$5&amp;S50&amp;$Q$6</f>
+        <v>INSERT INTO PARAMETRO_NOMINA VALUES (5,'Incapacidad común',100,'P','A');</v>
+      </c>
+      <c r="V68" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>INSERT INTO NOVEDAD VALUES (7,2007,14,818017,NULL,NULL);</v>
+      </c>
+    </row>
+    <row r="69" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A69" s="56">
+        <v>7</v>
+      </c>
+      <c r="B69" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C69" s="12">
+        <v>1</v>
+      </c>
+      <c r="D69" s="12">
+        <v>7000000</v>
+      </c>
+      <c r="E69" s="57" t="s">
+        <v>224</v>
+      </c>
+      <c r="F69" s="15"/>
+      <c r="O69" s="3" t="str">
+        <f>$P$3&amp;$O$44 &amp;$P$4&amp;O51&amp;$P$5&amp;$P$6&amp;P51&amp;$P$6&amp;$P$5&amp;Q51&amp;$P$5&amp;$P$6&amp;R51&amp;$Q$5&amp;S51&amp;$Q$6</f>
+        <v>INSERT INTO PARAMETRO_NOMINA VALUES (6,'Incapacidad medica laboral',100,'S','A');</v>
+      </c>
+      <c r="V69" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>INSERT INTO NOVEDAD VALUES (8,2008,14,569760,NULL,NULL);</v>
+      </c>
+    </row>
+    <row r="70" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A70" s="56">
+        <v>8</v>
+      </c>
+      <c r="B70" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C70" s="12">
+        <v>3</v>
+      </c>
+      <c r="D70" s="12">
+        <v>2500000</v>
+      </c>
+      <c r="E70" s="57" t="s">
+        <v>224</v>
+      </c>
+      <c r="F70" s="15"/>
+      <c r="O70" s="3" t="str">
+        <f>$P$3&amp;$O$44 &amp;$P$4&amp;O52&amp;$P$5&amp;$P$6&amp;P52&amp;$P$6&amp;$P$5&amp;Q52&amp;$P$5&amp;$P$6&amp;R52&amp;$Q$5&amp;S52&amp;$Q$6</f>
+        <v>INSERT INTO PARAMETRO_NOMINA VALUES (7,'Vacaciones',100,'S','A');</v>
+      </c>
+      <c r="V70" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>INSERT INTO NOVEDAD VALUES (9,2009,14,336775,NULL,NULL);</v>
+      </c>
+    </row>
+    <row r="71" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A71" s="56">
+        <v>9</v>
+      </c>
+      <c r="B71" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C71" s="12">
+        <v>3</v>
+      </c>
+      <c r="D71" s="12">
+        <v>5000000</v>
+      </c>
+      <c r="E71" s="57" t="s">
+        <v>224</v>
+      </c>
+      <c r="F71" s="15"/>
+      <c r="O71" s="3" t="str">
+        <f>$P$3&amp;$O$44 &amp;$P$4&amp;O53&amp;$P$5&amp;$P$6&amp;P53&amp;$P$6&amp;$P$5&amp;Q53&amp;$P$5&amp;$P$6&amp;R53&amp;$Q$5&amp;S53&amp;$Q$6</f>
+        <v>INSERT INTO PARAMETRO_NOMINA VALUES (8,'Recargo nocturno',0,35,'S','A');</v>
+      </c>
+      <c r="V71" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>INSERT INTO NOVEDAD VALUES (10,2010,14,632261,NULL,NULL);</v>
+      </c>
+    </row>
+    <row r="72" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A72" s="56">
+        <v>10</v>
+      </c>
+      <c r="B72" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C72" s="12">
+        <v>1</v>
+      </c>
+      <c r="D72" s="12">
+        <v>6000000</v>
+      </c>
+      <c r="E72" s="57" t="s">
+        <v>224</v>
+      </c>
+      <c r="F72" s="15"/>
+      <c r="O72" s="3" t="str">
+        <f>$P$3&amp;$O$44 &amp;$P$4&amp;O54&amp;$P$5&amp;$P$6&amp;P54&amp;$P$6&amp;$P$5&amp;Q54&amp;$P$5&amp;$P$6&amp;R54&amp;$Q$5&amp;S54&amp;$Q$6</f>
+        <v>INSERT INTO PARAMETRO_NOMINA VALUES (9,'Hora extra diurna',1,25,'S','A');</v>
+      </c>
+      <c r="V72" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>INSERT INTO NOVEDAD VALUES (11,2011,14,157647,NULL,NULL);</v>
+      </c>
+    </row>
+    <row r="73" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A73" s="56">
+        <v>11</v>
+      </c>
+      <c r="B73" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C73" s="12">
+        <v>2</v>
+      </c>
+      <c r="D73" s="12">
+        <v>5000000</v>
+      </c>
+      <c r="E73" s="57" t="s">
+        <v>224</v>
+      </c>
+      <c r="F73" s="15"/>
+      <c r="O73" s="3" t="str">
+        <f>$P$3&amp;$O$44 &amp;$P$4&amp;O55&amp;$P$5&amp;$P$6&amp;P55&amp;$P$6&amp;$P$5&amp;Q55&amp;$P$5&amp;$P$6&amp;R55&amp;$Q$5&amp;S55&amp;$Q$6</f>
+        <v>INSERT INTO PARAMETRO_NOMINA VALUES (10,'Hora extra nocturna',1,75,'S','A');</v>
+      </c>
+      <c r="V73" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>INSERT INTO NOVEDAD VALUES (12,2012,14,442282,NULL,NULL);</v>
+      </c>
+    </row>
+    <row r="74" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A74" s="56">
+        <v>12</v>
+      </c>
+      <c r="B74" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C74" s="12">
+        <v>1</v>
+      </c>
+      <c r="D74" s="12">
+        <v>4000000</v>
+      </c>
+      <c r="E74" s="57" t="s">
+        <v>224</v>
+      </c>
+      <c r="F74" s="15"/>
+      <c r="O74" s="3" t="str">
+        <f>$P$3&amp;$O$44 &amp;$P$4&amp;O56&amp;$P$5&amp;$P$6&amp;P56&amp;$P$6&amp;$P$5&amp;Q56&amp;$P$5&amp;$P$6&amp;R56&amp;$Q$5&amp;S56&amp;$Q$6</f>
+        <v>INSERT INTO PARAMETRO_NOMINA VALUES (11,'Hora extra dominical',1,75,'S','A');</v>
+      </c>
+      <c r="V74" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>INSERT INTO NOVEDAD VALUES (13,2013,14,542140,NULL,NULL);</v>
+      </c>
+    </row>
+    <row r="75" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A75" s="56">
+        <v>13</v>
+      </c>
+      <c r="B75" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C75" s="12">
+        <v>3</v>
+      </c>
+      <c r="D75" s="12">
+        <v>3000000</v>
+      </c>
+      <c r="E75" s="57" t="s">
+        <v>224</v>
+      </c>
+      <c r="F75" s="15"/>
+      <c r="O75" s="3" t="str">
+        <f>$P$3&amp;$O$44 &amp;$P$4&amp;O57&amp;$P$5&amp;$P$6&amp;P57&amp;$P$6&amp;$P$5&amp;Q57&amp;$P$5&amp;$P$6&amp;R57&amp;$Q$5&amp;S57&amp;$Q$6</f>
+        <v>INSERT INTO PARAMETRO_NOMINA VALUES (12,'Hora extra diurna dominical',2,'S','A');</v>
+      </c>
+      <c r="V75" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>INSERT INTO NOVEDAD VALUES (14,2014,14,890426,NULL,NULL);</v>
+      </c>
+    </row>
+    <row r="76" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="58">
+        <v>14</v>
+      </c>
+      <c r="B76" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="C76" s="60">
+        <v>4</v>
+      </c>
+      <c r="D76" s="60">
+        <v>2000000</v>
+      </c>
+      <c r="E76" s="62" t="s">
+        <v>224</v>
+      </c>
+      <c r="F76" s="15"/>
+      <c r="O76" s="3" t="str">
+        <f>$P$3&amp;$O$44 &amp;$P$4&amp;O58&amp;$P$5&amp;$P$6&amp;P58&amp;$P$6&amp;$P$5&amp;Q58&amp;$P$5&amp;$P$6&amp;R58&amp;$Q$5&amp;S58&amp;$Q$6</f>
+        <v>INSERT INTO PARAMETRO_NOMINA VALUES (13,'Hora extra nocturna dominical',2,5,'S','A');</v>
+      </c>
+      <c r="V76" s="3" t="str">
+        <f t="shared" ref="V76:V80" si="7">$P$3&amp;$W$31 &amp;$P$4&amp;W47&amp;$P$5&amp;X47&amp;$P$5&amp;Y47&amp;$P$5&amp;Z47&amp;$P$5&amp;AA47&amp;$P$5&amp;AB47&amp;$P$7</f>
+        <v>INSERT INTO NOVEDAD VALUES (15,2015,14,552774,NULL,NULL);</v>
+      </c>
+    </row>
+    <row r="77" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A77" s="38"/>
+      <c r="B77" s="36"/>
+      <c r="C77" s="38"/>
+      <c r="D77" s="38"/>
+      <c r="E77" s="38"/>
+      <c r="O77" s="3" t="str">
+        <f>$P$3&amp;$O$44 &amp;$P$4&amp;O59&amp;$P$5&amp;$P$6&amp;P59&amp;$P$6&amp;$P$5&amp;Q59&amp;$P$5&amp;$P$6&amp;R59&amp;$Q$5&amp;S59&amp;$Q$6</f>
+        <v>INSERT INTO PARAMETRO_NOMINA VALUES (14,'Bonificaciones',0,'S','A');</v>
+      </c>
+      <c r="V77" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>INSERT INTO NOVEDAD VALUES (16,2016,14,557368,NULL,NULL);</v>
+      </c>
+    </row>
+    <row r="78" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="O78" s="3" t="str">
+        <f>$P$3&amp;$O$44 &amp;$P$4&amp;O60&amp;$P$5&amp;$P$6&amp;P60&amp;$P$6&amp;$P$5&amp;Q60&amp;$P$5&amp;$P$6&amp;R60&amp;$Q$5&amp;S60&amp;$Q$6</f>
+        <v>INSERT INTO PARAMETRO_NOMINA VALUES (15,'SALARIO_MINIMO',1300606,'S','A');</v>
+      </c>
+      <c r="V78" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>INSERT INTO NOVEDAD VALUES (17,2017,14,37847,NULL,NULL);</v>
+      </c>
+    </row>
+    <row r="79" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A79" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="B79" s="26"/>
+      <c r="C79" s="26"/>
+      <c r="O79" s="3" t="str">
+        <f>$P$3&amp;$O$44 &amp;$P$4&amp;O61&amp;$P$5&amp;$P$6&amp;P61&amp;$P$6&amp;$P$5&amp;Q61&amp;$P$5&amp;$P$6&amp;R61&amp;$Q$5&amp;S61&amp;$Q$6</f>
+        <v>INSERT INTO PARAMETRO_NOMINA VALUES (16,'SALARIO_INTEGRAL',15050000,'S','A');</v>
+      </c>
+      <c r="V79" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>INSERT INTO NOVEDAD VALUES (18,2018,14,391789,NULL,NULL);</v>
+      </c>
+    </row>
+    <row r="80" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A80" s="3" t="str">
+        <f>$P$3&amp;$A$61&amp;$P$4&amp;A63&amp;$P$5&amp;$P$6&amp;B63&amp;$P$6&amp;$P$5&amp;C63&amp;$P$5&amp;D63&amp;$P$5&amp;$P$6&amp;E63&amp;$Q$6</f>
+        <v>INSERT INTO CARGO VALUES (1,'Ingeniero de Desarrollo',1,5000000,'A');</v>
+      </c>
+      <c r="V80" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>INSERT INTO NOVEDAD VALUES (19,2019,14,515406,NULL,NULL);</v>
+      </c>
+    </row>
+    <row r="81" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A81" s="3" t="str">
+        <f>$P$3&amp;$A$61&amp;$P$4&amp;A64&amp;$P$5&amp;$P$6&amp;B64&amp;$P$6&amp;$P$5&amp;C64&amp;$P$5&amp;D64&amp;$P$5&amp;$P$6&amp;E64&amp;$Q$6</f>
+        <v>INSERT INTO CARGO VALUES (2,'Auxiliar especializado',2,1350000,'A');</v>
+      </c>
+      <c r="V81" s="3" t="str">
+        <f>$P$3&amp;$W$31 &amp;$P$4&amp;W52&amp;$P$5&amp;X52&amp;$P$5&amp;Y52&amp;$P$5&amp;Z52&amp;$P$5&amp;AA52&amp;$P$5&amp;AB52&amp;$P$7</f>
+        <v>INSERT INTO NOVEDAD VALUES (20,2020,14,94347,NULL,NULL);</v>
+      </c>
+    </row>
+    <row r="82" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A82" s="3" t="str">
+        <f>$P$3&amp;$A$61&amp;$P$4&amp;A65&amp;$P$5&amp;$P$6&amp;B65&amp;$P$6&amp;$P$5&amp;C65&amp;$P$5&amp;D65&amp;$P$5&amp;$P$6&amp;E65&amp;$Q$6</f>
+        <v>INSERT INTO CARGO VALUES (3,'Director de Impuestos',3,3000000,'A');</v>
+      </c>
+      <c r="V82" s="3" t="str">
+        <f>$P$3&amp;$W$31 &amp;$P$4&amp;W53&amp;$P$5&amp;X53&amp;$P$5&amp;Y53&amp;$P$5&amp;Z53&amp;$P$5&amp;$P$6&amp;AA53&amp;$Q$5&amp;AB53&amp;$Q$6</f>
+        <v>INSERT INTO NOVEDAD VALUES (,,,,'','');</v>
+      </c>
+    </row>
+    <row r="83" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A83" s="3" t="str">
+        <f>$P$3&amp;$A$61&amp;$P$4&amp;A66&amp;$P$5&amp;$P$6&amp;B66&amp;$P$6&amp;$P$5&amp;C66&amp;$P$5&amp;D66&amp;$P$5&amp;$P$6&amp;E66&amp;$Q$6</f>
+        <v>INSERT INTO CARGO VALUES (4,'Gerente de ventas ',4,5000000,'A');</v>
+      </c>
+    </row>
+    <row r="84" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A84" s="3" t="str">
+        <f>$P$3&amp;$A$61&amp;$P$4&amp;A67&amp;$P$5&amp;$P$6&amp;B67&amp;$P$6&amp;$P$5&amp;C67&amp;$P$5&amp;D67&amp;$P$5&amp;$P$6&amp;E67&amp;$Q$6</f>
+        <v>INSERT INTO CARGO VALUES (5,'Director de Facturación',2,2500000,'A');</v>
+      </c>
+    </row>
+    <row r="85" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A85" s="3" t="str">
+        <f>$P$3&amp;$A$61&amp;$P$4&amp;A68&amp;$P$5&amp;$P$6&amp;B68&amp;$P$6&amp;$P$5&amp;C68&amp;$P$5&amp;D68&amp;$P$5&amp;$P$6&amp;E68&amp;$Q$6</f>
+        <v>INSERT INTO CARGO VALUES (6,'Ingeniero de Soporte',1,2500000,'A');</v>
+      </c>
+      <c r="O85" s="30" t="s">
+        <v>260</v>
+      </c>
+      <c r="P85" s="31"/>
+      <c r="Q85" s="31"/>
+      <c r="R85" s="32"/>
+    </row>
+    <row r="86" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A86" s="3" t="str">
+        <f>$P$3&amp;$A$61&amp;$P$4&amp;A69&amp;$P$5&amp;$P$6&amp;B69&amp;$P$6&amp;$P$5&amp;C69&amp;$P$5&amp;D69&amp;$P$5&amp;$P$6&amp;E69&amp;$Q$6</f>
+        <v>INSERT INTO CARGO VALUES (7,'DBA',1,7000000,'A');</v>
+      </c>
+      <c r="O86" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="P86" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="Q86" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="R86" s="11" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="87" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A87" s="3" t="str">
+        <f>$P$3&amp;$A$61&amp;$P$4&amp;A70&amp;$P$5&amp;$P$6&amp;B70&amp;$P$6&amp;$P$5&amp;C70&amp;$P$5&amp;D70&amp;$P$5&amp;$P$6&amp;E70&amp;$Q$6</f>
+        <v>INSERT INTO CARGO VALUES (8,'Auditor interno',3,2500000,'A');</v>
+      </c>
+      <c r="T87" s="3" t="str">
+        <f>$P$3&amp;$O$85&amp;$P$4&amp;O87&amp;$P$5&amp;$P$6&amp;P87&amp;$P$6&amp;$P$5&amp;Q87&amp;$P$5&amp;$P$6&amp;R87&amp;Q6</f>
+        <v>INSERT INTO PARAMETRO_PRESTACIONES VALUES (,'',,'');</v>
+      </c>
+    </row>
+    <row r="88" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A88" s="3" t="str">
+        <f>$P$3&amp;$A$61&amp;$P$4&amp;A71&amp;$P$5&amp;$P$6&amp;B71&amp;$P$6&amp;$P$5&amp;C71&amp;$P$5&amp;D71&amp;$P$5&amp;$P$6&amp;E71&amp;$Q$6</f>
+        <v>INSERT INTO CARGO VALUES (9,'Director de presupuestos',3,5000000,'A');</v>
+      </c>
+    </row>
+    <row r="89" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A89" s="3" t="str">
+        <f>$P$3&amp;$A$61&amp;$P$4&amp;A72&amp;$P$5&amp;$P$6&amp;B72&amp;$P$6&amp;$P$5&amp;C72&amp;$P$5&amp;D72&amp;$P$5&amp;$P$6&amp;E72&amp;$Q$6</f>
+        <v>INSERT INTO CARGO VALUES (10,'Líder de infraestructura',1,6000000,'A');</v>
+      </c>
+    </row>
+    <row r="90" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A90" s="3" t="str">
+        <f>$P$3&amp;$A$61&amp;$P$4&amp;A73&amp;$P$5&amp;$P$6&amp;B73&amp;$P$6&amp;$P$5&amp;C73&amp;$P$5&amp;D73&amp;$P$5&amp;$P$6&amp;E73&amp;$Q$6</f>
+        <v>INSERT INTO CARGO VALUES (11,'Director de cartera',2,5000000,'A');</v>
+      </c>
+    </row>
+    <row r="91" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A91" s="3" t="str">
+        <f>$P$3&amp;$A$61&amp;$P$4&amp;A74&amp;$P$5&amp;$P$6&amp;B74&amp;$P$6&amp;$P$5&amp;C74&amp;$P$5&amp;D74&amp;$P$5&amp;$P$6&amp;E74&amp;$Q$6</f>
+        <v>INSERT INTO CARGO VALUES (12,'Líder de QA',1,4000000,'A');</v>
+      </c>
+    </row>
+    <row r="92" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A92" s="3" t="str">
+        <f>$P$3&amp;$A$61&amp;$P$4&amp;A75&amp;$P$5&amp;$P$6&amp;B75&amp;$P$6&amp;$P$5&amp;C75&amp;$P$5&amp;D75&amp;$P$5&amp;$P$6&amp;E75&amp;$Q$6</f>
+        <v>INSERT INTO CARGO VALUES (13,'Director de costos',3,3000000,'A');</v>
+      </c>
+    </row>
+    <row r="93" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A93" s="3" t="str">
+        <f>$P$3&amp;$A$61&amp;$P$4&amp;A76&amp;$P$5&amp;$P$6&amp;B76&amp;$P$6&amp;$P$5&amp;C76&amp;$P$5&amp;D76&amp;$P$5&amp;$P$6&amp;E76&amp;$Q$6</f>
+        <v>INSERT INTO CARGO VALUES (14,'Director de ventas',4,2000000,'A');</v>
+      </c>
+    </row>
+    <row r="95" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="35"/>
+      <c r="B95" s="35"/>
+      <c r="C95" s="35"/>
+      <c r="D95" s="35"/>
+      <c r="E95" s="35"/>
+      <c r="F95" s="35"/>
+      <c r="G95" s="35"/>
+      <c r="H95" s="35"/>
+    </row>
+    <row r="96" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A96" s="50" t="s">
+        <v>258</v>
+      </c>
+      <c r="B96" s="51"/>
+      <c r="C96" s="51"/>
+      <c r="D96" s="51"/>
+      <c r="E96" s="51"/>
+      <c r="F96" s="51"/>
+      <c r="G96" s="51"/>
+      <c r="H96" s="52"/>
+      <c r="I96" s="15"/>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A97" s="55" t="s">
+        <v>251</v>
+      </c>
+      <c r="B97" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="C97" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D97" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E97" s="14" t="s">
+        <v>252</v>
+      </c>
+      <c r="F97" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="G97" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="H97" s="63" t="s">
+        <v>208</v>
+      </c>
+      <c r="I97" s="15"/>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A98" s="56">
+        <v>1</v>
+      </c>
+      <c r="B98" s="13">
+        <v>4395489</v>
+      </c>
+      <c r="C98" s="12" t="s">
         <v>225</v>
       </c>
-      <c r="U63" s="3" t="str">
-        <f>$O$3&amp;$V$31 &amp;$O$4&amp;V34&amp;$O$5&amp;W34&amp;$O$5&amp;X34&amp;$O$5&amp;Y34&amp;$O$5&amp;Z34&amp;$O$5&amp;AA34&amp;$O$7</f>
-        <v>INSERT INTO NOVEDAD VALUES (2,2002,14,328354,NULL,NULL);</v>
-      </c>
-    </row>
-    <row r="64" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A64" s="12">
+      <c r="D98" s="12">
+        <v>30</v>
+      </c>
+      <c r="E98" s="12">
+        <v>10</v>
+      </c>
+      <c r="F98" s="16"/>
+      <c r="G98" s="16"/>
+      <c r="H98" s="57">
+        <v>2001</v>
+      </c>
+      <c r="I98" s="15"/>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A99" s="56">
         <v>2</v>
       </c>
-      <c r="B64" s="12" t="s">
+      <c r="B99" s="13">
+        <v>3155500</v>
+      </c>
+      <c r="C99" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="D99" s="12">
+        <v>30</v>
+      </c>
+      <c r="E99" s="12"/>
+      <c r="F99" s="16"/>
+      <c r="G99" s="16"/>
+      <c r="H99" s="57">
+        <v>2002</v>
+      </c>
+      <c r="I99" s="15"/>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A100" s="56">
+        <v>3</v>
+      </c>
+      <c r="B100" s="13">
+        <v>3582542</v>
+      </c>
+      <c r="C100" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="D100" s="12">
+        <v>30</v>
+      </c>
+      <c r="E100" s="12"/>
+      <c r="F100" s="16"/>
+      <c r="G100" s="16"/>
+      <c r="H100" s="57">
+        <v>2003</v>
+      </c>
+      <c r="I100" s="15"/>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A101" s="56">
+        <v>4</v>
+      </c>
+      <c r="B101" s="13">
+        <v>3512579</v>
+      </c>
+      <c r="C101" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="D101" s="12">
+        <v>12</v>
+      </c>
+      <c r="E101" s="12"/>
+      <c r="F101" s="16"/>
+      <c r="G101" s="16"/>
+      <c r="H101" s="57">
+        <v>2004</v>
+      </c>
+      <c r="I101" s="15"/>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A102" s="56">
+        <v>5</v>
+      </c>
+      <c r="B102" s="13">
+        <v>4016192</v>
+      </c>
+      <c r="C102" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="D102" s="12">
+        <v>29</v>
+      </c>
+      <c r="E102" s="12"/>
+      <c r="F102" s="16"/>
+      <c r="G102" s="16"/>
+      <c r="H102" s="57">
+        <v>2005</v>
+      </c>
+      <c r="I102" s="15"/>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A103" s="56">
         <v>6</v>
       </c>
-      <c r="C64" s="13">
-        <v>2</v>
-      </c>
-      <c r="D64" s="35">
-        <v>1350000</v>
-      </c>
-      <c r="E64" s="3" t="s">
+      <c r="B103" s="13">
+        <v>3410252</v>
+      </c>
+      <c r="C103" s="12" t="s">
         <v>225</v>
       </c>
-      <c r="N64" s="3" t="str">
-        <f>$O$3&amp;$N$44 &amp;$O$4&amp;N46&amp;$O$5&amp;$O$6&amp;O46&amp;$O$6&amp;$O$5&amp;P46&amp;$O$5&amp;$O$6&amp;Q46&amp;$P$5&amp;R46&amp;$P$5&amp;S46&amp;$P$6</f>
-        <v>INSERT INTO PARAMETRO_NOMINA VALUES (1,'Licencia de luto',100,'DÍAS','S','A');</v>
-      </c>
-      <c r="U64" s="3" t="str">
-        <f>$O$3&amp;$V$31 &amp;$O$4&amp;V35&amp;$O$5&amp;W35&amp;$O$5&amp;X35&amp;$O$5&amp;Y35&amp;$O$5&amp;Z35&amp;$O$5&amp;AA35&amp;$O$7</f>
-        <v>INSERT INTO NOVEDAD VALUES (3,2003,14,406552,NULL,NULL);</v>
-      </c>
-    </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A65" s="12">
-        <v>3</v>
-      </c>
-      <c r="B65" s="12" t="s">
+      <c r="D103" s="12">
+        <v>30</v>
+      </c>
+      <c r="E103" s="12"/>
+      <c r="F103" s="16"/>
+      <c r="G103" s="16"/>
+      <c r="H103" s="57">
+        <v>2006</v>
+      </c>
+      <c r="I103" s="15"/>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A104" s="56">
+        <v>7</v>
+      </c>
+      <c r="B104" s="13">
+        <v>3122766</v>
+      </c>
+      <c r="C104" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="D104" s="12">
+        <v>30</v>
+      </c>
+      <c r="E104" s="12"/>
+      <c r="F104" s="16"/>
+      <c r="G104" s="16"/>
+      <c r="H104" s="57">
+        <v>2007</v>
+      </c>
+      <c r="I104" s="15"/>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A105" s="56">
+        <v>8</v>
+      </c>
+      <c r="B105" s="13">
+        <v>3852689</v>
+      </c>
+      <c r="C105" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="D105" s="12">
+        <v>20</v>
+      </c>
+      <c r="E105" s="12"/>
+      <c r="F105" s="16"/>
+      <c r="G105" s="16"/>
+      <c r="H105" s="57">
+        <v>2008</v>
+      </c>
+      <c r="I105" s="15"/>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A106" s="56">
+        <v>9</v>
+      </c>
+      <c r="B106" s="13">
+        <v>2560603</v>
+      </c>
+      <c r="C106" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="D106" s="12">
+        <v>30</v>
+      </c>
+      <c r="E106" s="12"/>
+      <c r="F106" s="16"/>
+      <c r="G106" s="16"/>
+      <c r="H106" s="57">
+        <v>2009</v>
+      </c>
+      <c r="I106" s="15"/>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A107" s="56">
+        <v>10</v>
+      </c>
+      <c r="B107" s="13">
+        <v>3743655</v>
+      </c>
+      <c r="C107" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="D107" s="12">
+        <v>30</v>
+      </c>
+      <c r="E107" s="12"/>
+      <c r="F107" s="16"/>
+      <c r="G107" s="16"/>
+      <c r="H107" s="57">
+        <v>2010</v>
+      </c>
+      <c r="I107" s="15"/>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A108" s="56">
         <v>11</v>
       </c>
-      <c r="C65" s="13">
-        <v>3</v>
-      </c>
-      <c r="D65" s="35">
-        <v>3000000</v>
-      </c>
-      <c r="E65" s="3" t="s">
+      <c r="B108" s="13">
+        <v>3538638</v>
+      </c>
+      <c r="C108" s="12" t="s">
         <v>225</v>
       </c>
-      <c r="N65" s="3" t="str">
-        <f t="shared" ref="N65:N79" si="4">$O$3&amp;$N$44 &amp;$O$4&amp;N47&amp;$O$5&amp;$O$6&amp;O47&amp;$O$6&amp;$O$5&amp;P47&amp;$O$5&amp;$O$6&amp;Q47&amp;$P$5&amp;R47&amp;$P$5&amp;S47&amp;$P$6</f>
-        <v>INSERT INTO PARAMETRO_NOMINA VALUES (2,'Licencia de maternidad',100,'DIAS','S','A');</v>
-      </c>
-      <c r="U65" s="3" t="str">
-        <f>$O$3&amp;$V$31 &amp;$O$4&amp;V36&amp;$O$5&amp;W36&amp;$O$5&amp;X36&amp;$O$5&amp;Y36&amp;$O$5&amp;Z36&amp;$O$5&amp;AA36&amp;$O$7</f>
-        <v>INSERT INTO NOVEDAD VALUES (4,2004,14,670106,NULL,NULL);</v>
-      </c>
-    </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A66" s="12">
-        <v>4</v>
-      </c>
-      <c r="B66" s="12" t="s">
+      <c r="D108" s="12">
+        <v>30</v>
+      </c>
+      <c r="E108" s="12"/>
+      <c r="F108" s="16"/>
+      <c r="G108" s="16"/>
+      <c r="H108" s="57">
+        <v>2011</v>
+      </c>
+      <c r="I108" s="15"/>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A109" s="56">
         <v>12</v>
       </c>
-      <c r="C66" s="13">
-        <v>4</v>
-      </c>
-      <c r="D66" s="35">
-        <v>5000000</v>
-      </c>
-      <c r="E66" s="3" t="s">
+      <c r="B109" s="13">
+        <v>3124336</v>
+      </c>
+      <c r="C109" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="D109" s="12">
+        <v>30</v>
+      </c>
+      <c r="E109" s="12"/>
+      <c r="F109" s="16"/>
+      <c r="G109" s="16"/>
+      <c r="H109" s="57">
+        <v>2012</v>
+      </c>
+      <c r="I109" s="15"/>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A110" s="56">
+        <v>13</v>
+      </c>
+      <c r="B110" s="13">
+        <v>4177447</v>
+      </c>
+      <c r="C110" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="D110" s="12">
+        <v>15</v>
+      </c>
+      <c r="E110" s="12"/>
+      <c r="F110" s="16"/>
+      <c r="G110" s="16"/>
+      <c r="H110" s="57">
+        <v>2013</v>
+      </c>
+      <c r="I110" s="15"/>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A111" s="56">
+        <v>14</v>
+      </c>
+      <c r="B111" s="13">
+        <v>2735729</v>
+      </c>
+      <c r="C111" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="D111" s="12">
+        <v>30</v>
+      </c>
+      <c r="E111" s="12"/>
+      <c r="F111" s="16"/>
+      <c r="G111" s="16"/>
+      <c r="H111" s="57">
+        <v>2014</v>
+      </c>
+      <c r="I111" s="15"/>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A112" s="56">
+        <v>15</v>
+      </c>
+      <c r="B112" s="13">
+        <v>3851336</v>
+      </c>
+      <c r="C112" s="12" t="s">
         <v>225</v>
       </c>
-      <c r="N66" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>INSERT INTO PARAMETRO_NOMINA VALUES (3,'Licencia de parternidad',100,'DÍAS','S','A');</v>
-      </c>
-      <c r="U66" s="3" t="str">
-        <f>$O$3&amp;$V$31 &amp;$O$4&amp;V37&amp;$O$5&amp;W37&amp;$O$5&amp;X37&amp;$O$5&amp;Y37&amp;$O$5&amp;Z37&amp;$O$5&amp;AA37&amp;$O$7</f>
-        <v>INSERT INTO NOVEDAD VALUES (5,2005,14,228523,NULL,NULL);</v>
-      </c>
-    </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A67" s="12">
-        <v>5</v>
-      </c>
-      <c r="B67" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C67" s="13">
-        <v>2</v>
-      </c>
-      <c r="D67" s="35">
-        <v>2500000</v>
-      </c>
-      <c r="E67" s="3" t="s">
+      <c r="D112" s="12">
+        <v>30</v>
+      </c>
+      <c r="E112" s="12"/>
+      <c r="F112" s="16"/>
+      <c r="G112" s="16"/>
+      <c r="H112" s="57">
+        <v>2015</v>
+      </c>
+      <c r="I112" s="15"/>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A113" s="56">
+        <v>16</v>
+      </c>
+      <c r="B113" s="13">
+        <v>4062175</v>
+      </c>
+      <c r="C113" s="12" t="s">
         <v>225</v>
       </c>
-      <c r="N67" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>INSERT INTO PARAMETRO_NOMINA VALUES (4,'Licencia no remunerada',0,'DIAS','N','A');</v>
-      </c>
-      <c r="U67" s="3" t="str">
-        <f>$O$3&amp;$V$31 &amp;$O$4&amp;V38&amp;$O$5&amp;W38&amp;$O$5&amp;X38&amp;$O$5&amp;Y38&amp;$O$5&amp;Z38&amp;$O$5&amp;AA38&amp;$O$7</f>
-        <v>INSERT INTO NOVEDAD VALUES (6,2006,14,494233,NULL,NULL);</v>
-      </c>
-    </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A68" s="12">
-        <v>6</v>
-      </c>
-      <c r="B68" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C68" s="13">
-        <v>1</v>
-      </c>
-      <c r="D68" s="35">
-        <v>2500000</v>
-      </c>
-      <c r="E68" s="3" t="s">
+      <c r="D113" s="12">
+        <v>30</v>
+      </c>
+      <c r="E113" s="12"/>
+      <c r="F113" s="16"/>
+      <c r="G113" s="16"/>
+      <c r="H113" s="57">
+        <v>2016</v>
+      </c>
+      <c r="I113" s="15"/>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A114" s="56">
+        <v>17</v>
+      </c>
+      <c r="B114" s="13">
+        <v>3152891</v>
+      </c>
+      <c r="C114" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="D114" s="12">
+        <v>25</v>
+      </c>
+      <c r="E114" s="12"/>
+      <c r="F114" s="16"/>
+      <c r="G114" s="16"/>
+      <c r="H114" s="57">
+        <v>2017</v>
+      </c>
+      <c r="I114" s="15"/>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A115" s="56">
+        <v>18</v>
+      </c>
+      <c r="B115" s="13">
+        <v>4487658</v>
+      </c>
+      <c r="C115" s="12" t="s">
         <v>225</v>
       </c>
-      <c r="N68" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>INSERT INTO PARAMETRO_NOMINA VALUES (5,'Incapacidad común',100,'DÍAS','P','A');</v>
-      </c>
-      <c r="U68" s="3" t="str">
-        <f>$O$3&amp;$V$31 &amp;$O$4&amp;V39&amp;$O$5&amp;W39&amp;$O$5&amp;X39&amp;$O$5&amp;Y39&amp;$O$5&amp;Z39&amp;$O$5&amp;AA39&amp;$O$7</f>
-        <v>INSERT INTO NOVEDAD VALUES (7,2007,14,818017,NULL,NULL);</v>
-      </c>
-    </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A69" s="12">
-        <v>7</v>
-      </c>
-      <c r="B69" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C69" s="13">
-        <v>1</v>
-      </c>
-      <c r="D69" s="35">
-        <v>7000000</v>
-      </c>
-      <c r="E69" s="3" t="s">
+      <c r="D115" s="12">
+        <v>30</v>
+      </c>
+      <c r="E115" s="12"/>
+      <c r="F115" s="16"/>
+      <c r="G115" s="16"/>
+      <c r="H115" s="57">
+        <v>2018</v>
+      </c>
+      <c r="I115" s="15"/>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A116" s="56">
+        <v>19</v>
+      </c>
+      <c r="B116" s="13">
+        <v>4240924</v>
+      </c>
+      <c r="C116" s="12" t="s">
         <v>225</v>
       </c>
-      <c r="N69" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>INSERT INTO PARAMETRO_NOMINA VALUES (6,'Incapacidad medica laboral',100,'DIAS','S','A');</v>
-      </c>
-      <c r="U69" s="3" t="str">
-        <f>$O$3&amp;$V$31 &amp;$O$4&amp;V40&amp;$O$5&amp;W40&amp;$O$5&amp;X40&amp;$O$5&amp;Y40&amp;$O$5&amp;Z40&amp;$O$5&amp;AA40&amp;$O$7</f>
-        <v>INSERT INTO NOVEDAD VALUES (8,2008,14,569760,NULL,NULL);</v>
-      </c>
-    </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A70" s="12">
-        <v>8</v>
-      </c>
-      <c r="B70" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C70" s="13">
-        <v>3</v>
-      </c>
-      <c r="D70" s="35">
-        <v>2500000</v>
-      </c>
-      <c r="E70" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="N70" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>INSERT INTO PARAMETRO_NOMINA VALUES (7,'Vacaciones',100,'DÍAS','S','A');</v>
-      </c>
-      <c r="U70" s="3" t="str">
-        <f>$O$3&amp;$V$31 &amp;$O$4&amp;V41&amp;$O$5&amp;W41&amp;$O$5&amp;X41&amp;$O$5&amp;Y41&amp;$O$5&amp;Z41&amp;$O$5&amp;AA41&amp;$O$7</f>
-        <v>INSERT INTO NOVEDAD VALUES (9,2009,14,336775,NULL,NULL);</v>
-      </c>
-    </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A71" s="12">
-        <v>9</v>
-      </c>
-      <c r="B71" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C71" s="13">
-        <v>3</v>
-      </c>
-      <c r="D71" s="35">
-        <v>5000000</v>
-      </c>
-      <c r="E71" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="N71" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>INSERT INTO PARAMETRO_NOMINA VALUES (8,'Recargo nocturno',0.35,'HORAS','S','A');</v>
-      </c>
-      <c r="U71" s="3" t="str">
-        <f>$O$3&amp;$V$31 &amp;$O$4&amp;V42&amp;$O$5&amp;W42&amp;$O$5&amp;X42&amp;$O$5&amp;Y42&amp;$O$5&amp;Z42&amp;$O$5&amp;AA42&amp;$O$7</f>
-        <v>INSERT INTO NOVEDAD VALUES (10,2010,14,632261,NULL,NULL);</v>
-      </c>
-    </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A72" s="12">
-        <v>10</v>
-      </c>
-      <c r="B72" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C72" s="13">
-        <v>1</v>
-      </c>
-      <c r="D72" s="35">
-        <v>6000000</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="N72" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>INSERT INTO PARAMETRO_NOMINA VALUES (9,'Hora extra diurna',1.25,'HORAS','S','A');</v>
-      </c>
-      <c r="U72" s="3" t="str">
-        <f>$O$3&amp;$V$31 &amp;$O$4&amp;V43&amp;$O$5&amp;W43&amp;$O$5&amp;X43&amp;$O$5&amp;Y43&amp;$O$5&amp;Z43&amp;$O$5&amp;AA43&amp;$O$7</f>
-        <v>INSERT INTO NOVEDAD VALUES (11,2011,14,157647,NULL,NULL);</v>
-      </c>
-    </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A73" s="12">
-        <v>11</v>
-      </c>
-      <c r="B73" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C73" s="13">
-        <v>2</v>
-      </c>
-      <c r="D73" s="35">
-        <v>5000000</v>
-      </c>
-      <c r="E73" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="N73" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>INSERT INTO PARAMETRO_NOMINA VALUES (10,'Hora extra nocturna',1.75,'HORAS','S','A');</v>
-      </c>
-      <c r="U73" s="3" t="str">
-        <f>$O$3&amp;$V$31 &amp;$O$4&amp;V44&amp;$O$5&amp;W44&amp;$O$5&amp;X44&amp;$O$5&amp;Y44&amp;$O$5&amp;Z44&amp;$O$5&amp;AA44&amp;$O$7</f>
-        <v>INSERT INTO NOVEDAD VALUES (12,2012,14,442282,NULL,NULL);</v>
-      </c>
-    </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A74" s="12">
-        <v>12</v>
-      </c>
-      <c r="B74" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C74" s="13">
-        <v>1</v>
-      </c>
-      <c r="D74" s="35">
-        <v>4000000</v>
-      </c>
-      <c r="E74" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="N74" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>INSERT INTO PARAMETRO_NOMINA VALUES (11,'Hora extra dominical',1.75,'HORAS','S','A');</v>
-      </c>
-      <c r="U74" s="3" t="str">
-        <f>$O$3&amp;$V$31 &amp;$O$4&amp;V45&amp;$O$5&amp;W45&amp;$O$5&amp;X45&amp;$O$5&amp;Y45&amp;$O$5&amp;Z45&amp;$O$5&amp;AA45&amp;$O$7</f>
-        <v>INSERT INTO NOVEDAD VALUES (13,2013,14,542140,NULL,NULL);</v>
-      </c>
-    </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A75" s="12">
-        <v>13</v>
-      </c>
-      <c r="B75" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C75" s="13">
-        <v>3</v>
-      </c>
-      <c r="D75" s="35">
-        <v>3000000</v>
-      </c>
-      <c r="E75" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="N75" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>INSERT INTO PARAMETRO_NOMINA VALUES (12,'Hora extra diurna dominical',2,'HORAS','S','A');</v>
-      </c>
-      <c r="U75" s="3" t="str">
-        <f>$O$3&amp;$V$31 &amp;$O$4&amp;V46&amp;$O$5&amp;W46&amp;$O$5&amp;X46&amp;$O$5&amp;Y46&amp;$O$5&amp;Z46&amp;$O$5&amp;AA46&amp;$O$7</f>
-        <v>INSERT INTO NOVEDAD VALUES (14,2014,14,890426,NULL,NULL);</v>
-      </c>
-    </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A76" s="12">
-        <v>14</v>
-      </c>
-      <c r="B76" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C76" s="13">
-        <v>4</v>
-      </c>
-      <c r="D76" s="35">
-        <v>2000000</v>
-      </c>
-      <c r="E76" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="N76" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>INSERT INTO PARAMETRO_NOMINA VALUES (13,'Hora extra nocturna dominical',2.5,'HORAS','S','A');</v>
-      </c>
-      <c r="U76" s="3" t="str">
-        <f t="shared" ref="U76:U82" si="5">$O$3&amp;$V$31 &amp;$O$4&amp;V47&amp;$O$5&amp;W47&amp;$O$5&amp;X47&amp;$O$5&amp;Y47&amp;$O$5&amp;Z47&amp;$O$5&amp;AA47&amp;$O$7</f>
-        <v>INSERT INTO NOVEDAD VALUES (15,2015,14,552774,NULL,NULL);</v>
-      </c>
-    </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B77" s="2"/>
-      <c r="N77" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>INSERT INTO PARAMETRO_NOMINA VALUES (14,'Bonificaciones',0,'DINERO','S','A');</v>
-      </c>
-      <c r="U77" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>INSERT INTO NOVEDAD VALUES (16,2016,14,557368,NULL,NULL);</v>
-      </c>
-    </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="N78" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>INSERT INTO PARAMETRO_NOMINA VALUES (15,'SALARIO_MINIMO',1300606,'DINERO','S','A');</v>
-      </c>
-      <c r="U78" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>INSERT INTO NOVEDAD VALUES (17,2017,14,37847,NULL,NULL);</v>
-      </c>
-    </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A79" s="30" t="s">
-        <v>69</v>
-      </c>
-      <c r="B79" s="31"/>
-      <c r="C79" s="31"/>
-      <c r="N79" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>INSERT INTO PARAMETRO_NOMINA VALUES (16,'SALARIO_INTEGRAL',15050000,'DINERO','S','A');</v>
-      </c>
-      <c r="U79" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>INSERT INTO NOVEDAD VALUES (18,2018,14,391789,NULL,NULL);</v>
-      </c>
-    </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A80" s="3" t="str">
-        <f>$O$3&amp;$A$61&amp;$O$4&amp;A63&amp;$O$5&amp;$O$6&amp;B63&amp;$O$6&amp;$O$5&amp;C63&amp;$O$5&amp;D63&amp;$O$5&amp;$O$6&amp;E63&amp;$P$6</f>
-        <v>INSERT INTO CARGO VALUES (1,'Ingeniero de Desarrollo',1,5000000,'A');</v>
-      </c>
-      <c r="U80" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>INSERT INTO NOVEDAD VALUES (19,2019,14,515406,NULL,NULL);</v>
-      </c>
-    </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A81" s="3" t="str">
-        <f t="shared" ref="A81:A93" si="6">$O$3&amp;$A$61&amp;$O$4&amp;A64&amp;$O$5&amp;$O$6&amp;B64&amp;$O$6&amp;$O$5&amp;C64&amp;$O$5&amp;D64&amp;$O$5&amp;$O$6&amp;E64&amp;$P$6</f>
-        <v>INSERT INTO CARGO VALUES (2,'Auxiliar especializado',2,1350000,'A');</v>
-      </c>
-      <c r="U81" s="3" t="str">
-        <f>$O$3&amp;$V$31 &amp;$O$4&amp;V52&amp;$O$5&amp;W52&amp;$O$5&amp;X52&amp;$O$5&amp;Y52&amp;$O$5&amp;Z52&amp;$O$5&amp;AA52&amp;$O$7</f>
-        <v>INSERT INTO NOVEDAD VALUES (20,2020,14,94347,NULL,NULL);</v>
-      </c>
-    </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A82" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>INSERT INTO CARGO VALUES (3,'Director de Impuestos',3,3000000,'A');</v>
-      </c>
-      <c r="U82" s="3" t="str">
-        <f>$O$3&amp;$V$31 &amp;$O$4&amp;V53&amp;$O$5&amp;W53&amp;$O$5&amp;X53&amp;$O$5&amp;Y53&amp;$O$5&amp;$O$6&amp;Z53&amp;$P$5&amp;AA53&amp;$P$6</f>
-        <v>INSERT INTO NOVEDAD VALUES (,,,,'','');</v>
-      </c>
-    </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A83" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>INSERT INTO CARGO VALUES (4,'Gerente de ventas ',4,5000000,'A');</v>
-      </c>
-    </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A84" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>INSERT INTO CARGO VALUES (5,'Director de Facturación',2,2500000,'A');</v>
-      </c>
-    </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A85" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>INSERT INTO CARGO VALUES (6,'Ingeniero de Soporte',1,2500000,'A');</v>
-      </c>
-    </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A86" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>INSERT INTO CARGO VALUES (7,'DBA',1,7000000,'A');</v>
-      </c>
-    </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A87" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>INSERT INTO CARGO VALUES (8,'Auditor interno',3,2500000,'A');</v>
-      </c>
-    </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A88" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>INSERT INTO CARGO VALUES (9,'Director de presupuestos',3,5000000,'A');</v>
-      </c>
-    </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A89" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>INSERT INTO CARGO VALUES (10,'Líder de infraestructura',1,6000000,'A');</v>
-      </c>
-    </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A90" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>INSERT INTO CARGO VALUES (11,'Director de cartera',2,5000000,'A');</v>
-      </c>
-    </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A91" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>INSERT INTO CARGO VALUES (12,'Líder de QA',1,4000000,'A');</v>
-      </c>
-    </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A92" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>INSERT INTO CARGO VALUES (13,'Director de costos',3,3000000,'A');</v>
-      </c>
-    </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A93" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>INSERT INTO CARGO VALUES (14,'Director de ventas',4,2000000,'A');</v>
+      <c r="D116" s="12">
+        <v>30</v>
+      </c>
+      <c r="E116" s="12"/>
+      <c r="F116" s="16"/>
+      <c r="G116" s="16"/>
+      <c r="H116" s="57">
+        <v>2019</v>
+      </c>
+      <c r="I116" s="15"/>
+    </row>
+    <row r="117" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="58">
+        <v>20</v>
+      </c>
+      <c r="B117" s="59">
+        <v>3769836</v>
+      </c>
+      <c r="C117" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="D117" s="60">
+        <v>30</v>
+      </c>
+      <c r="E117" s="60"/>
+      <c r="F117" s="61"/>
+      <c r="G117" s="61"/>
+      <c r="H117" s="62">
+        <v>2020</v>
+      </c>
+      <c r="I117" s="15"/>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A118" s="38"/>
+      <c r="B118" s="38"/>
+      <c r="C118" s="38"/>
+      <c r="D118" s="38"/>
+      <c r="E118" s="38"/>
+      <c r="F118" s="38"/>
+      <c r="G118" s="38"/>
+      <c r="H118" s="38"/>
+      <c r="J118" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A120" s="3" t="str">
+        <f>$P$3&amp;$A$96&amp;$J$118&amp;$P$4&amp;B98&amp;$P$5&amp;$P$6&amp;C98&amp;$P$6&amp;$P$5&amp;D98&amp;$P$5&amp;E98&amp;$P$5&amp;$P$6&amp;F98&amp;$P$6&amp;$P$5&amp;$P$6&amp;G98&amp;$P$6&amp;$P$5&amp;H98&amp;$P$7</f>
+        <v>INSERT INTO NOMINA (SUELDO_DEVENGADO, TRANSPORTE, NUM_DIAS_TRABAJADOS, SUELDO_TOTAL, FECHA_INICIO, ID_EMPLEADO) VALUES (4395489,'S',30,10,'','',2001);</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A121" s="3" t="str">
+        <f t="shared" ref="A121:A139" si="8">$P$3&amp;$A$96&amp;$J$118&amp;$P$4&amp;B99&amp;$P$5&amp;$P$6&amp;C99&amp;$P$6&amp;$P$5&amp;D99&amp;$P$5&amp;E99&amp;$P$5&amp;$P$6&amp;F99&amp;$P$6&amp;$P$5&amp;$P$6&amp;G99&amp;$P$6&amp;$P$5&amp;H99&amp;$P$7</f>
+        <v>INSERT INTO NOMINA (SUELDO_DEVENGADO, TRANSPORTE, NUM_DIAS_TRABAJADOS, SUELDO_TOTAL, FECHA_INICIO, ID_EMPLEADO) VALUES (3155500,'S',30,,'','',2002);</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A122" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>INSERT INTO NOMINA (SUELDO_DEVENGADO, TRANSPORTE, NUM_DIAS_TRABAJADOS, SUELDO_TOTAL, FECHA_INICIO, ID_EMPLEADO) VALUES (3582542,'N',30,,'','',2003);</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A123" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>INSERT INTO NOMINA (SUELDO_DEVENGADO, TRANSPORTE, NUM_DIAS_TRABAJADOS, SUELDO_TOTAL, FECHA_INICIO, ID_EMPLEADO) VALUES (3512579,'N',12,,'','',2004);</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A124" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>INSERT INTO NOMINA (SUELDO_DEVENGADO, TRANSPORTE, NUM_DIAS_TRABAJADOS, SUELDO_TOTAL, FECHA_INICIO, ID_EMPLEADO) VALUES (4016192,'S',29,,'','',2005);</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A125" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>INSERT INTO NOMINA (SUELDO_DEVENGADO, TRANSPORTE, NUM_DIAS_TRABAJADOS, SUELDO_TOTAL, FECHA_INICIO, ID_EMPLEADO) VALUES (3410252,'S',30,,'','',2006);</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A126" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>INSERT INTO NOMINA (SUELDO_DEVENGADO, TRANSPORTE, NUM_DIAS_TRABAJADOS, SUELDO_TOTAL, FECHA_INICIO, ID_EMPLEADO) VALUES (3122766,'N',30,,'','',2007);</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A127" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>INSERT INTO NOMINA (SUELDO_DEVENGADO, TRANSPORTE, NUM_DIAS_TRABAJADOS, SUELDO_TOTAL, FECHA_INICIO, ID_EMPLEADO) VALUES (3852689,'S',20,,'','',2008);</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A128" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>INSERT INTO NOMINA (SUELDO_DEVENGADO, TRANSPORTE, NUM_DIAS_TRABAJADOS, SUELDO_TOTAL, FECHA_INICIO, ID_EMPLEADO) VALUES (2560603,'S',30,,'','',2009);</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>INSERT INTO NOMINA (SUELDO_DEVENGADO, TRANSPORTE, NUM_DIAS_TRABAJADOS, SUELDO_TOTAL, FECHA_INICIO, ID_EMPLEADO) VALUES (3743655,'S',30,,'','',2010);</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>INSERT INTO NOMINA (SUELDO_DEVENGADO, TRANSPORTE, NUM_DIAS_TRABAJADOS, SUELDO_TOTAL, FECHA_INICIO, ID_EMPLEADO) VALUES (3538638,'S',30,,'','',2011);</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>INSERT INTO NOMINA (SUELDO_DEVENGADO, TRANSPORTE, NUM_DIAS_TRABAJADOS, SUELDO_TOTAL, FECHA_INICIO, ID_EMPLEADO) VALUES (3124336,'N',30,,'','',2012);</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>INSERT INTO NOMINA (SUELDO_DEVENGADO, TRANSPORTE, NUM_DIAS_TRABAJADOS, SUELDO_TOTAL, FECHA_INICIO, ID_EMPLEADO) VALUES (4177447,'N',15,,'','',2013);</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>INSERT INTO NOMINA (SUELDO_DEVENGADO, TRANSPORTE, NUM_DIAS_TRABAJADOS, SUELDO_TOTAL, FECHA_INICIO, ID_EMPLEADO) VALUES (2735729,'N',30,,'','',2014);</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>INSERT INTO NOMINA (SUELDO_DEVENGADO, TRANSPORTE, NUM_DIAS_TRABAJADOS, SUELDO_TOTAL, FECHA_INICIO, ID_EMPLEADO) VALUES (3851336,'S',30,,'','',2015);</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>INSERT INTO NOMINA (SUELDO_DEVENGADO, TRANSPORTE, NUM_DIAS_TRABAJADOS, SUELDO_TOTAL, FECHA_INICIO, ID_EMPLEADO) VALUES (4062175,'S',30,,'','',2016);</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A136" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>INSERT INTO NOMINA (SUELDO_DEVENGADO, TRANSPORTE, NUM_DIAS_TRABAJADOS, SUELDO_TOTAL, FECHA_INICIO, ID_EMPLEADO) VALUES (3152891,'N',25,,'','',2017);</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A137" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>INSERT INTO NOMINA (SUELDO_DEVENGADO, TRANSPORTE, NUM_DIAS_TRABAJADOS, SUELDO_TOTAL, FECHA_INICIO, ID_EMPLEADO) VALUES (4487658,'S',30,,'','',2018);</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A138" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>INSERT INTO NOMINA (SUELDO_DEVENGADO, TRANSPORTE, NUM_DIAS_TRABAJADOS, SUELDO_TOTAL, FECHA_INICIO, ID_EMPLEADO) VALUES (4240924,'S',30,,'','',2019);</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A139" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>INSERT INTO NOMINA (SUELDO_DEVENGADO, TRANSPORTE, NUM_DIAS_TRABAJADOS, SUELDO_TOTAL, FECHA_INICIO, ID_EMPLEADO) VALUES (3769836,'N',30,,'','',2020);</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="M34:O34"/>
-    <mergeCell ref="V31:Z31"/>
-    <mergeCell ref="AD31:AG31"/>
-    <mergeCell ref="N44:S44"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="R2:Z2"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="A61:D61"/>
+  <mergeCells count="21">
+    <mergeCell ref="O85:R85"/>
+    <mergeCell ref="N25:Q25"/>
+    <mergeCell ref="A96:H96"/>
+    <mergeCell ref="A61:E61"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="O44:S44"/>
+    <mergeCell ref="AE1:AG1"/>
+    <mergeCell ref="I33:K33"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="W31:AB31"/>
     <mergeCell ref="A79:C79"/>
     <mergeCell ref="E43:F43"/>
     <mergeCell ref="E49:F49"/>
-    <mergeCell ref="H43:J43"/>
-    <mergeCell ref="H49:K49"/>
+    <mergeCell ref="I43:K43"/>
+    <mergeCell ref="I49:L49"/>
+    <mergeCell ref="N34:P34"/>
+    <mergeCell ref="AE31:AH31"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="S2:AA2"/>
   </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -4354,11 +5420,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ACB72A9-B009-4D48-8FC9-449D1DC19CA5}">
   <dimension ref="A2:Q72"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A53" sqref="A53:A72"/>
+    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.42578125" style="6"/>
     <col min="2" max="2" width="19.28515625" style="6" bestFit="1" customWidth="1"/>
@@ -4977,21 +6043,21 @@
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A27" s="34" t="s">
+      <c r="A27" s="28" t="s">
         <v>192</v>
       </c>
-      <c r="B27" s="34"/>
-      <c r="C27" s="34"/>
-      <c r="D27" s="34"/>
-      <c r="E27" s="33"/>
-      <c r="K27" s="33" t="s">
+      <c r="B27" s="28"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="29"/>
+      <c r="K27" s="29" t="s">
         <v>178</v>
       </c>
-      <c r="L27" s="33"/>
-      <c r="M27" s="33"/>
-      <c r="O27" s="33"/>
-      <c r="P27" s="33"/>
-      <c r="Q27" s="33"/>
+      <c r="L27" s="29"/>
+      <c r="M27" s="29"/>
+      <c r="O27" s="29"/>
+      <c r="P27" s="29"/>
+      <c r="Q27" s="29"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28" s="8" t="s">
@@ -5003,13 +6069,13 @@
       <c r="C28" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="D28" s="23"/>
-      <c r="E28" s="25"/>
-      <c r="F28" s="33" t="s">
+      <c r="D28" s="19"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="29" t="s">
         <v>193</v>
       </c>
-      <c r="G28" s="33"/>
-      <c r="H28" s="33"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="29"/>
       <c r="K28" s="6" t="s">
         <v>49</v>
       </c>
@@ -5023,8 +6089,8 @@
       </c>
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
-      <c r="D29" s="23"/>
-      <c r="E29" s="26"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="22"/>
       <c r="F29" s="6" t="s">
         <v>49</v>
       </c>
@@ -5047,8 +6113,8 @@
       </c>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
-      <c r="D30" s="23"/>
-      <c r="E30" s="26"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="22"/>
       <c r="K30" s="6">
         <v>2</v>
       </c>
@@ -5062,8 +6128,8 @@
       </c>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
-      <c r="D31" s="23"/>
-      <c r="E31" s="26"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="22"/>
       <c r="K31" s="6">
         <v>3</v>
       </c>
@@ -5077,8 +6143,8 @@
       </c>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
-      <c r="D32" s="23"/>
-      <c r="E32" s="26"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="22"/>
     </row>
     <row r="33" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
@@ -5086,8 +6152,8 @@
       </c>
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
-      <c r="D33" s="23"/>
-      <c r="E33" s="26"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="22"/>
     </row>
     <row r="34" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
@@ -5095,12 +6161,12 @@
       </c>
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
-      <c r="D34" s="23"/>
-      <c r="E34" s="26"/>
-      <c r="F34" s="33" t="s">
+      <c r="D34" s="19"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="29" t="s">
         <v>196</v>
       </c>
-      <c r="G34" s="33"/>
+      <c r="G34" s="29"/>
     </row>
     <row r="35" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
@@ -5108,20 +6174,20 @@
       </c>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
-      <c r="D35" s="23"/>
-      <c r="E35" s="26"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="22"/>
       <c r="F35" s="6" t="s">
         <v>49</v>
       </c>
       <c r="G35" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="K35" s="33" t="s">
+      <c r="K35" s="29" t="s">
         <v>188</v>
       </c>
-      <c r="L35" s="33"/>
-      <c r="M35" s="33"/>
-      <c r="N35" s="33"/>
+      <c r="L35" s="29"/>
+      <c r="M35" s="29"/>
+      <c r="N35" s="29"/>
     </row>
     <row r="36" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
@@ -5129,8 +6195,8 @@
       </c>
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
-      <c r="D36" s="23"/>
-      <c r="E36" s="26"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="22"/>
       <c r="K36" s="6" t="s">
         <v>49</v>
       </c>
@@ -5150,8 +6216,8 @@
       </c>
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
-      <c r="D37" s="23"/>
-      <c r="E37" s="26"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="22"/>
       <c r="K37" s="6">
         <v>1</v>
       </c>
@@ -5165,8 +6231,8 @@
       </c>
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
-      <c r="D38" s="23"/>
-      <c r="E38" s="26"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="22"/>
       <c r="K38" s="6">
         <v>2</v>
       </c>
@@ -5180,8 +6246,8 @@
       </c>
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
-      <c r="D39" s="23"/>
-      <c r="E39" s="26"/>
+      <c r="D39" s="19"/>
+      <c r="E39" s="22"/>
       <c r="K39" s="6">
         <v>3</v>
       </c>
@@ -5195,12 +6261,12 @@
       </c>
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
-      <c r="D40" s="23"/>
-      <c r="E40" s="26"/>
-      <c r="F40" s="33" t="s">
+      <c r="D40" s="19"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="29" t="s">
         <v>197</v>
       </c>
-      <c r="G40" s="33"/>
+      <c r="G40" s="29"/>
     </row>
     <row r="41" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
@@ -5208,8 +6274,8 @@
       </c>
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
-      <c r="D41" s="23"/>
-      <c r="E41" s="26"/>
+      <c r="D41" s="19"/>
+      <c r="E41" s="22"/>
       <c r="F41" s="6" t="s">
         <v>194</v>
       </c>
@@ -5223,8 +6289,8 @@
       </c>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
-      <c r="D42" s="23"/>
-      <c r="E42" s="26"/>
+      <c r="D42" s="19"/>
+      <c r="E42" s="22"/>
     </row>
     <row r="43" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
@@ -5232,8 +6298,8 @@
       </c>
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
-      <c r="D43" s="23"/>
-      <c r="E43" s="26"/>
+      <c r="D43" s="19"/>
+      <c r="E43" s="22"/>
       <c r="I43" s="6" t="s">
         <v>204</v>
       </c>
@@ -5244,8 +6310,8 @@
       </c>
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
-      <c r="D44" s="23"/>
-      <c r="E44" s="26"/>
+      <c r="D44" s="19"/>
+      <c r="E44" s="22"/>
       <c r="I44" s="6" t="s">
         <v>205</v>
       </c>
@@ -5256,9 +6322,9 @@
       </c>
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
-      <c r="D45" s="23"/>
-      <c r="E45" s="26"/>
-      <c r="G45" s="24" t="s">
+      <c r="D45" s="19"/>
+      <c r="E45" s="22"/>
+      <c r="G45" s="20" t="s">
         <v>198</v>
       </c>
       <c r="I45" s="6" t="s">
@@ -5271,8 +6337,8 @@
       </c>
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
-      <c r="D46" s="23"/>
-      <c r="E46" s="26"/>
+      <c r="D46" s="19"/>
+      <c r="E46" s="22"/>
       <c r="G46" s="6" t="s">
         <v>199</v>
       </c>
@@ -5286,8 +6352,8 @@
       </c>
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
-      <c r="D47" s="23"/>
-      <c r="E47" s="26"/>
+      <c r="D47" s="19"/>
+      <c r="E47" s="22"/>
       <c r="G47" s="6" t="s">
         <v>200</v>
       </c>
@@ -5301,15 +6367,15 @@
       </c>
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
-      <c r="D48" s="23"/>
-      <c r="E48" s="26"/>
+      <c r="D48" s="19"/>
+      <c r="E48" s="22"/>
       <c r="G48" s="6" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D49" s="22"/>
-      <c r="E49" s="22"/>
+      <c r="D49" s="18"/>
+      <c r="E49" s="18"/>
       <c r="G49" s="6" t="s">
         <v>202</v>
       </c>
@@ -5320,11 +6386,11 @@
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A51" s="34" t="s">
+      <c r="A51" s="28" t="s">
         <v>189</v>
       </c>
-      <c r="B51" s="34"/>
-      <c r="C51" s="34"/>
+      <c r="B51" s="28"/>
+      <c r="C51" s="28"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="8" t="s">
@@ -5427,7 +6493,7 @@
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A72" s="20">
+      <c r="A72" s="17">
         <v>94347</v>
       </c>
     </row>
@@ -5450,11 +6516,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:P23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.42578125" style="6"/>
     <col min="2" max="2" width="19.140625" style="6" bestFit="1" customWidth="1"/>
